--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,40 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0933868639345</v>
+        <v>20.05411627099812</v>
       </c>
       <c r="C2">
-        <v>24.57481978135165</v>
+        <v>13.43828906689889</v>
       </c>
       <c r="D2">
-        <v>3.835715286815603</v>
+        <v>3.56498526024753</v>
       </c>
       <c r="E2">
-        <v>30.59358480804828</v>
+        <v>6.772839748621981</v>
       </c>
       <c r="F2">
-        <v>40.15783868747212</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>64.70814568088305</v>
       </c>
       <c r="I2">
-        <v>23.67084953944917</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.362053395421146</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.40675415547956</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +450,40 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21050997632087</v>
+        <v>18.5726616732344</v>
       </c>
       <c r="C3">
-        <v>22.75468881860019</v>
+        <v>12.41397086921259</v>
       </c>
       <c r="D3">
-        <v>3.819550486509269</v>
+        <v>3.365147286817444</v>
       </c>
       <c r="E3">
-        <v>28.21350208029774</v>
+        <v>6.607101638488546</v>
       </c>
       <c r="F3">
-        <v>37.61249947155756</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>61.27873414340752</v>
       </c>
       <c r="I3">
-        <v>22.56375921094119</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.187264595319452</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.09963769573728</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +491,40 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.00159226546623</v>
+        <v>17.70257332777849</v>
       </c>
       <c r="C4">
-        <v>21.59002981734449</v>
+        <v>11.76085018840305</v>
       </c>
       <c r="D4">
-        <v>3.817377804221991</v>
+        <v>3.240059778377094</v>
       </c>
       <c r="E4">
-        <v>26.70350362309474</v>
+        <v>6.51287819735489</v>
       </c>
       <c r="F4">
-        <v>36.03443595865087</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>59.13774138905274</v>
       </c>
       <c r="I4">
-        <v>21.90029463918222</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.084035534180782</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.26325749741534</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +532,40 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.49523208493835</v>
+        <v>17.36365487221482</v>
       </c>
       <c r="C5">
-        <v>21.10308632439385</v>
+        <v>11.48842556221439</v>
       </c>
       <c r="D5">
-        <v>3.818218030166819</v>
+        <v>3.188434726360067</v>
       </c>
       <c r="E5">
-        <v>26.07500037424564</v>
+        <v>6.476340174881325</v>
       </c>
       <c r="F5">
-        <v>35.38750054945925</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>58.25662857231816</v>
       </c>
       <c r="I5">
-        <v>21.63389971791739</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.042970867340919</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.91368004551132</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +573,40 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.41031113664847</v>
+        <v>17.30709220158992</v>
       </c>
       <c r="C6">
-        <v>21.02147130604923</v>
+        <v>11.44280598830677</v>
       </c>
       <c r="D6">
-        <v>3.818455632707478</v>
+        <v>3.179821806683672</v>
       </c>
       <c r="E6">
-        <v>25.96981745180954</v>
+        <v>6.470384266973483</v>
       </c>
       <c r="F6">
-        <v>35.27984763048097</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>58.10980974582278</v>
       </c>
       <c r="I6">
-        <v>21.58990268110069</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.036211925141919</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.8550983069805</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +614,40 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99481939149057</v>
+        <v>17.69802182186795</v>
       </c>
       <c r="C7">
-        <v>21.58351328575768</v>
+        <v>11.75720179606733</v>
       </c>
       <c r="D7">
-        <v>3.817382429144286</v>
+        <v>3.239366240646603</v>
       </c>
       <c r="E7">
-        <v>26.69508187479827</v>
+        <v>6.51237795468181</v>
       </c>
       <c r="F7">
-        <v>36.025726674125</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>59.12589290559357</v>
       </c>
       <c r="I7">
-        <v>21.89668597225606</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.083477696935391</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.25857868175862</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +655,40 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45485768460938</v>
+        <v>19.55062053147615</v>
       </c>
       <c r="C8">
-        <v>23.95669608088348</v>
+        <v>13.08999606106928</v>
       </c>
       <c r="D8">
-        <v>3.828391022924376</v>
+        <v>3.496542691101265</v>
       </c>
       <c r="E8">
-        <v>29.7824147288543</v>
+        <v>6.714104877419384</v>
       </c>
       <c r="F8">
-        <v>39.2832664855305</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>63.53309101902966</v>
       </c>
       <c r="I8">
-        <v>23.2856423930013</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.300919030700384</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.96291709716052</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +696,40 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.88249317646171</v>
+        <v>23.06000449647953</v>
       </c>
       <c r="C9">
-        <v>28.26283978648428</v>
+        <v>15.52258938793137</v>
       </c>
       <c r="D9">
-        <v>3.922811882531668</v>
+        <v>3.984797796241177</v>
       </c>
       <c r="E9">
-        <v>35.50160705828404</v>
+        <v>7.171479352111998</v>
       </c>
       <c r="F9">
-        <v>45.66292707753004</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>71.89711559765684</v>
       </c>
       <c r="I9">
-        <v>26.14959566186047</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.761379982360881</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.05013024265259</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +737,40 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.93167073431392</v>
+        <v>25.49346389760821</v>
       </c>
       <c r="C10">
-        <v>31.25850528200017</v>
+        <v>17.21839355455008</v>
       </c>
       <c r="D10">
-        <v>4.054561651226329</v>
+        <v>4.338731283079293</v>
       </c>
       <c r="E10">
-        <v>39.58740468718425</v>
+        <v>7.548741202787706</v>
       </c>
       <c r="F10">
-        <v>50.55507528184325</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>77.8945317778779</v>
       </c>
       <c r="I10">
-        <v>28.37084929381998</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.123496969984711</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.18507985427095</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +778,40 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.28553160756348</v>
+        <v>26.57549066217261</v>
       </c>
       <c r="C11">
-        <v>32.5976577575646</v>
+        <v>17.97548039821181</v>
       </c>
       <c r="D11">
-        <v>4.132860945692649</v>
+        <v>4.500169809053702</v>
       </c>
       <c r="E11">
-        <v>41.44775421869307</v>
+        <v>7.730476131952225</v>
       </c>
       <c r="F11">
-        <v>52.78008571945626</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>80.60177660476673</v>
       </c>
       <c r="I11">
-        <v>29.62941589744783</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.294406485120607</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.13363651477951</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +819,40 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.79461794548642</v>
+        <v>26.98232164527459</v>
       </c>
       <c r="C12">
-        <v>33.10277653034032</v>
+        <v>18.26068191570686</v>
       </c>
       <c r="D12">
-        <v>4.165644311971568</v>
+        <v>4.561519930507489</v>
       </c>
       <c r="E12">
-        <v>42.1555082492444</v>
+        <v>7.800884485766487</v>
       </c>
       <c r="F12">
-        <v>53.62496791032869</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>81.62529875624573</v>
       </c>
       <c r="I12">
-        <v>30.10895581809368</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.36012961118233</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.49021996511301</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +860,40 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.68511463035384</v>
+        <v>26.89482026767436</v>
       </c>
       <c r="C13">
-        <v>32.99405227644008</v>
+        <v>18.19931457768997</v>
       </c>
       <c r="D13">
-        <v>4.158435564016044</v>
+        <v>4.548294616032119</v>
       </c>
       <c r="E13">
-        <v>42.00287685794817</v>
+        <v>7.785647513865229</v>
       </c>
       <c r="F13">
-        <v>53.44285832561009</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>81.40491197220121</v>
       </c>
       <c r="I13">
-        <v>30.00551941932093</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.345928151697526</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.41352801539628</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +901,40 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.327478543826</v>
+        <v>26.60901477011313</v>
       </c>
       <c r="C14">
-        <v>32.63924469311189</v>
+        <v>17.99897027674755</v>
       </c>
       <c r="D14">
-        <v>4.135492086722946</v>
+        <v>4.505211769386521</v>
       </c>
       <c r="E14">
-        <v>41.505895267057</v>
+        <v>7.736235900006118</v>
       </c>
       <c r="F14">
-        <v>52.84953192485706</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>80.68600612044344</v>
       </c>
       <c r="I14">
-        <v>29.66879901063957</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.299792682383995</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.16302111457702</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +942,40 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10798873906199</v>
+        <v>26.43359449862034</v>
       </c>
       <c r="C15">
-        <v>32.42170362150164</v>
+        <v>17.87607844390777</v>
       </c>
       <c r="D15">
-        <v>4.121862849679295</v>
+        <v>4.478855677927056</v>
       </c>
       <c r="E15">
-        <v>41.20201192465097</v>
+        <v>7.706181522070901</v>
       </c>
       <c r="F15">
-        <v>52.48648756258847</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>80.24548829163834</v>
       </c>
       <c r="I15">
-        <v>29.46298221179352</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.271668007383369</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.00925914136919</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +983,40 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.84261905913581</v>
+        <v>25.42230352723366</v>
       </c>
       <c r="C16">
-        <v>31.17062582716505</v>
+        <v>17.16867379063232</v>
       </c>
       <c r="D16">
-        <v>4.049854116794573</v>
+        <v>4.328202090261186</v>
       </c>
       <c r="E16">
-        <v>39.46610115321222</v>
+        <v>7.537078572591077</v>
       </c>
       <c r="F16">
-        <v>50.40984441057324</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>77.7172915733848</v>
       </c>
       <c r="I16">
-        <v>28.29797464048445</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.112461083353347</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.12268587579739</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1024,40 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.05860309808453</v>
+        <v>24.79595601616858</v>
       </c>
       <c r="C17">
-        <v>30.3979805838351</v>
+        <v>16.73140192814834</v>
       </c>
       <c r="D17">
-        <v>4.010704813023296</v>
+        <v>4.235991963513317</v>
       </c>
       <c r="E17">
-        <v>38.40351836329736</v>
+        <v>7.436014174214181</v>
       </c>
       <c r="F17">
-        <v>49.13725846726459</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>76.16178697991054</v>
       </c>
       <c r="I17">
-        <v>27.71192358097856</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.016447712728278</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.57342148274385</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1065,40 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.60444523337105</v>
+        <v>24.43329920268933</v>
       </c>
       <c r="C18">
-        <v>29.95125367590061</v>
+        <v>16.47850437167699</v>
       </c>
       <c r="D18">
-        <v>3.98988174133207</v>
+        <v>4.182984872428055</v>
       </c>
       <c r="E18">
-        <v>37.79228608977173</v>
+        <v>7.378826740837802</v>
       </c>
       <c r="F18">
-        <v>48.40507953401087</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>75.26501898810697</v>
       </c>
       <c r="I18">
-        <v>27.37796679604086</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.96179659962124</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.25532299696538</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1106,40 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.45009180098551</v>
+        <v>24.31007943447597</v>
       </c>
       <c r="C19">
-        <v>29.79956361044129</v>
+        <v>16.39262322415096</v>
       </c>
       <c r="D19">
-        <v>3.983108932652081</v>
+        <v>4.165038488158655</v>
       </c>
       <c r="E19">
-        <v>37.58524326941316</v>
+        <v>7.359622400498942</v>
       </c>
       <c r="F19">
-        <v>48.15707679745048</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>74.96099608832039</v>
       </c>
       <c r="I19">
-        <v>27.26540021296046</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.943388136719107</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.14722897051047</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1147,40 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.1423877479749</v>
+        <v>24.86287550776316</v>
       </c>
       <c r="C20">
-        <v>30.48046123174095</v>
+        <v>16.77809038392084</v>
       </c>
       <c r="D20">
-        <v>4.014693673676234</v>
+        <v>4.245803793026355</v>
       </c>
       <c r="E20">
-        <v>38.51661928110156</v>
+        <v>7.446674295836937</v>
       </c>
       <c r="F20">
-        <v>49.27273525540704</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>76.32758009836587</v>
       </c>
       <c r="I20">
-        <v>27.77397871847517</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.026608442190069</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.63211257933744</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1188,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.43261143366109</v>
+        <v>26.69303556709615</v>
       </c>
       <c r="C21">
-        <v>32.74350124496406</v>
+        <v>18.05785156511081</v>
       </c>
       <c r="D21">
-        <v>4.142141693175064</v>
+        <v>4.51785896174776</v>
       </c>
       <c r="E21">
-        <v>41.65175316457539</v>
+        <v>7.750704878363003</v>
       </c>
       <c r="F21">
-        <v>53.02372066810902</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>80.89719797928085</v>
       </c>
       <c r="I21">
-        <v>29.76760824966426</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.313315478469184</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.23666626764145</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1229,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.90926451707369</v>
+        <v>27.87262337792044</v>
       </c>
       <c r="C22">
-        <v>34.21188038722396</v>
+        <v>18.88591720503821</v>
       </c>
       <c r="D22">
-        <v>4.249005857543734</v>
+        <v>4.697024236674693</v>
       </c>
       <c r="E22">
-        <v>43.72198705050933</v>
+        <v>7.958764635723692</v>
       </c>
       <c r="F22">
-        <v>55.49041121262962</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>83.87503929572316</v>
       </c>
       <c r="I22">
-        <v>31.17080949188745</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.506622448565576</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.27049282584852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1270,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.12251267559765</v>
+        <v>27.24430236053878</v>
       </c>
       <c r="C23">
-        <v>33.42858582599082</v>
+        <v>18.44450378042107</v>
       </c>
       <c r="D23">
-        <v>4.187749636892796</v>
+        <v>4.601215541740243</v>
       </c>
       <c r="E23">
-        <v>42.6138667285635</v>
+        <v>7.846807107537626</v>
       </c>
       <c r="F23">
-        <v>54.17150805996602</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.28593242166478</v>
       </c>
       <c r="I23">
-        <v>30.41962741753935</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.402861596616848</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.71983113845689</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1311,40 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.10451943514816</v>
+        <v>24.83262923263399</v>
       </c>
       <c r="C24">
-        <v>30.44317968971161</v>
+        <v>16.75698725935747</v>
       </c>
       <c r="D24">
-        <v>4.012885099079433</v>
+        <v>4.241367858134246</v>
       </c>
       <c r="E24">
-        <v>38.46548762939295</v>
+        <v>7.441852011744035</v>
       </c>
       <c r="F24">
-        <v>49.21148808959018</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>76.25263287519546</v>
       </c>
       <c r="I24">
-        <v>27.74591442155407</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.022013076830978</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.6055856043752</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1352,51 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.72364271571563</v>
+        <v>22.13791365457575</v>
       </c>
       <c r="C25">
-        <v>27.13109501900297</v>
+        <v>14.88215421659487</v>
       </c>
       <c r="D25">
-        <v>3.887759364502648</v>
+        <v>3.853975422403344</v>
       </c>
       <c r="E25">
-        <v>33.98230400871086</v>
+        <v>7.040818238325532</v>
       </c>
       <c r="F25">
-        <v>43.87434303732963</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>69.66297249366224</v>
       </c>
       <c r="I25">
-        <v>25.35775436988457</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.632901774001636</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.24018957665066</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.05411627099812</v>
+        <v>11.25466823924339</v>
       </c>
       <c r="C2">
-        <v>13.43828906689889</v>
+        <v>10.00871991718336</v>
       </c>
       <c r="D2">
-        <v>3.56498526024753</v>
+        <v>2.223766451642375</v>
       </c>
       <c r="E2">
-        <v>6.772839748621981</v>
+        <v>7.076963190691315</v>
       </c>
       <c r="F2">
-        <v>64.70814568088305</v>
+        <v>45.19892369226203</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.17942351604945</v>
       </c>
       <c r="J2">
-        <v>7.362053395421146</v>
+        <v>6.560637015183309</v>
       </c>
       <c r="K2">
-        <v>17.40675415547956</v>
+        <v>10.98277366693583</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.00729228764453</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.5726616732344</v>
+        <v>10.45277042954018</v>
       </c>
       <c r="C3">
-        <v>12.41397086921259</v>
+        <v>9.451105625732961</v>
       </c>
       <c r="D3">
-        <v>3.365147286817444</v>
+        <v>2.155516295675947</v>
       </c>
       <c r="E3">
-        <v>6.607101638488546</v>
+        <v>6.963949578459127</v>
       </c>
       <c r="F3">
-        <v>61.27873414340752</v>
+        <v>43.85068767819686</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.48948530871252</v>
       </c>
       <c r="J3">
-        <v>7.187264595319452</v>
+        <v>6.535743330676453</v>
       </c>
       <c r="K3">
-        <v>16.09963769573728</v>
+        <v>10.42297918000228</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.67570329328227</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.70257332777849</v>
+        <v>9.934453115665342</v>
       </c>
       <c r="C4">
-        <v>11.76085018840305</v>
+        <v>9.100569785333601</v>
       </c>
       <c r="D4">
-        <v>3.240059778377094</v>
+        <v>2.111421749108184</v>
       </c>
       <c r="E4">
-        <v>6.51287819735489</v>
+        <v>6.898172012069058</v>
       </c>
       <c r="F4">
-        <v>59.13774138905274</v>
+        <v>43.02716953836291</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.07171473365181</v>
       </c>
       <c r="J4">
-        <v>7.084035534180782</v>
+        <v>6.522897804884678</v>
       </c>
       <c r="K4">
-        <v>15.26325749741534</v>
+        <v>10.07333534933904</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.47554134915631</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.36365487221482</v>
+        <v>9.716637411401639</v>
       </c>
       <c r="C5">
-        <v>11.48842556221439</v>
+        <v>8.955815655076702</v>
       </c>
       <c r="D5">
-        <v>3.188434726360067</v>
+        <v>2.092907649229741</v>
       </c>
       <c r="E5">
-        <v>6.476340174881325</v>
+        <v>6.8722814938313</v>
       </c>
       <c r="F5">
-        <v>58.25662857231816</v>
+        <v>42.692923551117</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.90300929802541</v>
       </c>
       <c r="J5">
-        <v>7.042970867340919</v>
+        <v>6.518261097328286</v>
       </c>
       <c r="K5">
-        <v>14.91368004551132</v>
+        <v>9.929546877090244</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.39493106021512</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.30709220158992</v>
+        <v>9.680068814980276</v>
       </c>
       <c r="C6">
-        <v>11.44280598830677</v>
+        <v>8.931668989610635</v>
       </c>
       <c r="D6">
-        <v>3.179821806683672</v>
+        <v>2.089800631605044</v>
       </c>
       <c r="E6">
-        <v>6.470384266973483</v>
+        <v>6.86803776044924</v>
       </c>
       <c r="F6">
-        <v>58.10980974582278</v>
+        <v>42.63751152339849</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.87509091225776</v>
       </c>
       <c r="J6">
-        <v>7.036211925141919</v>
+        <v>6.517526844028768</v>
       </c>
       <c r="K6">
-        <v>14.8550983069805</v>
+        <v>9.905598118456767</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.38160642088122</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.69802182186795</v>
+        <v>9.931542380545737</v>
       </c>
       <c r="C7">
-        <v>11.75720179606733</v>
+        <v>9.098625090255231</v>
       </c>
       <c r="D7">
-        <v>3.239366240646603</v>
+        <v>2.111174261740323</v>
       </c>
       <c r="E7">
-        <v>6.51237795468181</v>
+        <v>6.897819134563868</v>
       </c>
       <c r="F7">
-        <v>59.12589290559357</v>
+        <v>43.02265597481234</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.06943318790734</v>
       </c>
       <c r="J7">
-        <v>7.083477696935391</v>
+        <v>6.522832871738073</v>
       </c>
       <c r="K7">
-        <v>15.25857868175862</v>
+        <v>10.071401185278</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.47445020750772</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.55062053147615</v>
+        <v>10.98351445759277</v>
       </c>
       <c r="C8">
-        <v>13.08999606106928</v>
+        <v>9.818223199318323</v>
       </c>
       <c r="D8">
-        <v>3.496542691101265</v>
+        <v>2.200690930258422</v>
       </c>
       <c r="E8">
-        <v>6.714104877419384</v>
+        <v>7.037249978968918</v>
       </c>
       <c r="F8">
-        <v>63.53309101902966</v>
+        <v>44.7333081994153</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.94035645080798</v>
       </c>
       <c r="J8">
-        <v>7.300919030700384</v>
+        <v>6.55153800597528</v>
       </c>
       <c r="K8">
-        <v>16.96291709716052</v>
+        <v>10.79108706283631</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.89230194172848</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.06000449647953</v>
+        <v>12.84407181893016</v>
       </c>
       <c r="C9">
-        <v>15.52258938793137</v>
+        <v>11.16007148581163</v>
       </c>
       <c r="D9">
-        <v>3.984797796241177</v>
+        <v>2.358674877864117</v>
       </c>
       <c r="E9">
-        <v>7.171479352111998</v>
+        <v>7.339061736642306</v>
       </c>
       <c r="F9">
-        <v>71.89711559765684</v>
+        <v>48.11204134455394</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.69215456738488</v>
       </c>
       <c r="J9">
-        <v>7.761379982360881</v>
+        <v>6.6278994722153</v>
       </c>
       <c r="K9">
-        <v>20.05013024265259</v>
+        <v>12.48010536884881</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.7352042076353</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.49346389760821</v>
+        <v>14.09299806486136</v>
       </c>
       <c r="C10">
-        <v>17.21839355455008</v>
+        <v>12.09991149553735</v>
       </c>
       <c r="D10">
-        <v>4.338731283079293</v>
+        <v>2.463825084532909</v>
       </c>
       <c r="E10">
-        <v>7.548741202787706</v>
+        <v>7.577765167715862</v>
       </c>
       <c r="F10">
-        <v>77.8945317778779</v>
+        <v>50.59847949837135</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33.00352702841257</v>
       </c>
       <c r="J10">
-        <v>8.123496969984711</v>
+        <v>6.697272872128562</v>
       </c>
       <c r="K10">
-        <v>22.18507985427095</v>
+        <v>13.68825966410637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.36448802787961</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57549066217261</v>
+        <v>14.63683625395861</v>
       </c>
       <c r="C11">
-        <v>17.97548039821181</v>
+        <v>12.51727820475877</v>
       </c>
       <c r="D11">
-        <v>4.500169809053702</v>
+        <v>2.509251803279168</v>
       </c>
       <c r="E11">
-        <v>7.730476131952225</v>
+        <v>7.689991558631661</v>
       </c>
       <c r="F11">
-        <v>80.60177660476673</v>
+        <v>51.729155236599</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>33.60519676350113</v>
       </c>
       <c r="J11">
-        <v>8.294406485120607</v>
+        <v>6.731955394868249</v>
       </c>
       <c r="K11">
-        <v>23.13363651477951</v>
+        <v>14.21465947648303</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.6522702569558</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.98232164527459</v>
+        <v>14.83939607678698</v>
       </c>
       <c r="C12">
-        <v>18.26068191570686</v>
+        <v>12.67387947411183</v>
       </c>
       <c r="D12">
-        <v>4.561519930507489</v>
+        <v>2.526104756631116</v>
       </c>
       <c r="E12">
-        <v>7.800884485766487</v>
+        <v>7.733010511840662</v>
       </c>
       <c r="F12">
-        <v>81.62529875624573</v>
+        <v>52.15720432085153</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.83377891057217</v>
       </c>
       <c r="J12">
-        <v>8.36012961118233</v>
+        <v>6.745559422127552</v>
       </c>
       <c r="K12">
-        <v>23.49021996511301</v>
+        <v>14.41077889686709</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.7614273803549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.89482026767436</v>
+        <v>14.79591957274649</v>
       </c>
       <c r="C13">
-        <v>18.19931457768997</v>
+        <v>12.64021639074015</v>
       </c>
       <c r="D13">
-        <v>4.548294616032119</v>
+        <v>2.522490748361387</v>
       </c>
       <c r="E13">
-        <v>7.785647513865229</v>
+        <v>7.723722423013972</v>
       </c>
       <c r="F13">
-        <v>81.40491197220121</v>
+        <v>52.06502157131365</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.78451624410742</v>
       </c>
       <c r="J13">
-        <v>8.345928151697526</v>
+        <v>6.74260826909138</v>
       </c>
       <c r="K13">
-        <v>23.41352801539628</v>
+        <v>14.36868213627153</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.73791085549324</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60901477011313</v>
+        <v>14.65356801460301</v>
       </c>
       <c r="C14">
-        <v>17.99897027674755</v>
+        <v>12.53019069099254</v>
       </c>
       <c r="D14">
-        <v>4.505211769386521</v>
+        <v>2.510645320786696</v>
       </c>
       <c r="E14">
-        <v>7.736235900006118</v>
+        <v>7.693520306522926</v>
       </c>
       <c r="F14">
-        <v>80.68600612044344</v>
+        <v>51.76437346590862</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.62398733969603</v>
       </c>
       <c r="J14">
-        <v>8.299792682383995</v>
+        <v>6.733065049013474</v>
       </c>
       <c r="K14">
-        <v>23.16302111457702</v>
+        <v>14.23085809137893</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.66124722665934</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.43359449862034</v>
+        <v>14.56593700391241</v>
       </c>
       <c r="C15">
-        <v>17.87607844390777</v>
+        <v>12.46260931879108</v>
       </c>
       <c r="D15">
-        <v>4.478855677927056</v>
+        <v>2.503344094216073</v>
       </c>
       <c r="E15">
-        <v>7.706181522070901</v>
+        <v>7.675088518366096</v>
       </c>
       <c r="F15">
-        <v>80.24548829163834</v>
+        <v>51.58020245218431</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>33.52575611277231</v>
       </c>
       <c r="J15">
-        <v>8.271668007383369</v>
+        <v>6.727281484229737</v>
       </c>
       <c r="K15">
-        <v>23.00925914136919</v>
+        <v>14.14602166444246</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.61431116195066</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.42230352723366</v>
+        <v>14.05697749583373</v>
       </c>
       <c r="C16">
-        <v>17.16867379063232</v>
+        <v>12.07243172622536</v>
       </c>
       <c r="D16">
-        <v>4.328202090261186</v>
+        <v>2.46080764653368</v>
       </c>
       <c r="E16">
-        <v>7.537078572591077</v>
+        <v>7.570503887480721</v>
       </c>
       <c r="F16">
-        <v>77.7172915733848</v>
+        <v>50.52457295472495</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>32.96430953863687</v>
       </c>
       <c r="J16">
-        <v>8.112461083353347</v>
+        <v>6.695070934785317</v>
       </c>
       <c r="K16">
-        <v>22.12268587579739</v>
+        <v>13.6534013660165</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.34570770836413</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.79595601616858</v>
+        <v>13.73860105862111</v>
       </c>
       <c r="C17">
-        <v>16.73140192814834</v>
+        <v>11.8304686850568</v>
       </c>
       <c r="D17">
-        <v>4.235991963513317</v>
+        <v>2.434094266925709</v>
       </c>
       <c r="E17">
-        <v>7.436014174214181</v>
+        <v>7.50727420022535</v>
       </c>
       <c r="F17">
-        <v>76.16178697991054</v>
+        <v>49.8768161516128</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>32.62118878800538</v>
       </c>
       <c r="J17">
-        <v>8.016447712728278</v>
+        <v>6.67612561639522</v>
       </c>
       <c r="K17">
-        <v>21.57342148274385</v>
+        <v>13.34533520068795</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.18128485624862</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.43329920268933</v>
+        <v>13.55318422366646</v>
       </c>
       <c r="C18">
-        <v>16.47850437167699</v>
+        <v>11.69033796913618</v>
       </c>
       <c r="D18">
-        <v>4.182984872428055</v>
+        <v>2.418503083778186</v>
       </c>
       <c r="E18">
-        <v>7.378826740837802</v>
+        <v>7.471248630413199</v>
       </c>
       <c r="F18">
-        <v>75.26501898810697</v>
+        <v>49.50420413924713</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>32.42431493429234</v>
       </c>
       <c r="J18">
-        <v>7.96179659962124</v>
+        <v>6.66552147823957</v>
       </c>
       <c r="K18">
-        <v>21.25532299696538</v>
+        <v>13.16595274154355</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.08685736637945</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.31007943447597</v>
+        <v>13.490007735657</v>
       </c>
       <c r="C19">
-        <v>16.39262322415096</v>
+        <v>11.64272716614184</v>
       </c>
       <c r="D19">
-        <v>4.165038488158655</v>
+        <v>2.41318539729014</v>
       </c>
       <c r="E19">
-        <v>7.359622400498942</v>
+        <v>7.45910992564175</v>
       </c>
       <c r="F19">
-        <v>74.96099608832039</v>
+        <v>49.37803987107027</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>32.35773947998216</v>
       </c>
       <c r="J19">
-        <v>7.943388136719107</v>
+        <v>6.661980750450154</v>
       </c>
       <c r="K19">
-        <v>21.14722897051047</v>
+        <v>13.10483716839961</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.05491202475777</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.86287550776316</v>
+        <v>13.77272950956262</v>
       </c>
       <c r="C20">
-        <v>16.77809038392084</v>
+        <v>11.85632538148538</v>
       </c>
       <c r="D20">
-        <v>4.245803793026355</v>
+        <v>2.436961401366811</v>
       </c>
       <c r="E20">
-        <v>7.446674295836937</v>
+        <v>7.513969688781574</v>
       </c>
       <c r="F20">
-        <v>76.32758009836587</v>
+        <v>49.94577561367016</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>32.65766491520964</v>
       </c>
       <c r="J20">
-        <v>8.026608442190069</v>
+        <v>6.678111934936791</v>
       </c>
       <c r="K20">
-        <v>21.63211257933744</v>
+        <v>13.37835529638073</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.19877335355598</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.69303556709615</v>
+        <v>14.69547087870301</v>
       </c>
       <c r="C21">
-        <v>18.05785156511081</v>
+        <v>12.56254690675163</v>
       </c>
       <c r="D21">
-        <v>4.51785896174776</v>
+        <v>2.514134110040404</v>
       </c>
       <c r="E21">
-        <v>7.750704878363003</v>
+        <v>7.702377252730491</v>
       </c>
       <c r="F21">
-        <v>80.89719797928085</v>
+        <v>51.85268431963632</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.67111823278031</v>
       </c>
       <c r="J21">
-        <v>8.313315478469184</v>
+        <v>6.735855176960444</v>
       </c>
       <c r="K21">
-        <v>23.23666626764145</v>
+        <v>14.27142665913708</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.68376052321229</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.87262337792044</v>
+        <v>15.27889618248246</v>
       </c>
       <c r="C22">
-        <v>18.88591720503821</v>
+        <v>13.03081917565533</v>
       </c>
       <c r="D22">
-        <v>4.697024236674693</v>
+        <v>2.562534402397918</v>
       </c>
       <c r="E22">
-        <v>7.958764635723692</v>
+        <v>7.828552460818508</v>
       </c>
       <c r="F22">
-        <v>83.87503929572316</v>
+        <v>53.0983157646226</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.33782010723206</v>
       </c>
       <c r="J22">
-        <v>8.506622448565576</v>
+        <v>6.776347339379467</v>
       </c>
       <c r="K22">
-        <v>24.27049282584852</v>
+        <v>14.83641340770594</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.05075789542688</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.24430236053878</v>
+        <v>14.96926734655373</v>
       </c>
       <c r="C23">
-        <v>18.44450378042107</v>
+        <v>12.77459990347258</v>
       </c>
       <c r="D23">
-        <v>4.601215541740243</v>
+        <v>2.536889590877733</v>
       </c>
       <c r="E23">
-        <v>7.846807107537626</v>
+        <v>7.760931954533749</v>
       </c>
       <c r="F23">
-        <v>82.28593242166478</v>
+        <v>52.43356034998708</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.98158179499733</v>
       </c>
       <c r="J23">
-        <v>8.402861596616848</v>
+        <v>6.754476480354053</v>
       </c>
       <c r="K23">
-        <v>23.71983113845689</v>
+        <v>14.53653723473799</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.83195618183036</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.83262923263399</v>
+        <v>13.75730745234006</v>
       </c>
       <c r="C24">
-        <v>16.75698725935747</v>
+        <v>11.84463875617246</v>
       </c>
       <c r="D24">
-        <v>4.241367858134246</v>
+        <v>2.435665896346233</v>
       </c>
       <c r="E24">
-        <v>7.441852011744035</v>
+        <v>7.510941642720264</v>
       </c>
       <c r="F24">
-        <v>76.25263287519546</v>
+        <v>49.9145996839561</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>32.6411728408962</v>
       </c>
       <c r="J24">
-        <v>8.022013076830978</v>
+        <v>6.677213025546033</v>
       </c>
       <c r="K24">
-        <v>21.6055856043752</v>
+        <v>13.36343399398792</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.19086648499286</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.13791365457575</v>
+        <v>12.36187970101884</v>
       </c>
       <c r="C25">
-        <v>14.88215421659487</v>
+        <v>10.8049869873182</v>
       </c>
       <c r="D25">
-        <v>3.853975422403344</v>
+        <v>2.31783993146016</v>
       </c>
       <c r="E25">
-        <v>7.040818238325532</v>
+        <v>7.254411850314857</v>
       </c>
       <c r="F25">
-        <v>69.66297249366224</v>
+        <v>47.19666659542251</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.21384734284596</v>
       </c>
       <c r="J25">
-        <v>7.632901774001636</v>
+        <v>6.604988879887816</v>
       </c>
       <c r="K25">
-        <v>19.24018957665066</v>
+        <v>12.01388563104387</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.50514819829002</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.25466823924339</v>
+        <v>12.13083128559418</v>
       </c>
       <c r="C2">
-        <v>10.00871991718336</v>
+        <v>10.47083485335457</v>
       </c>
       <c r="D2">
-        <v>2.223766451642375</v>
+        <v>5.28821961223046</v>
       </c>
       <c r="E2">
-        <v>7.076963190691315</v>
+        <v>11.81046704551659</v>
       </c>
       <c r="F2">
-        <v>45.19892369226203</v>
+        <v>51.50541655708697</v>
       </c>
       <c r="I2">
-        <v>30.17942351604945</v>
+        <v>35.28633954450259</v>
       </c>
       <c r="J2">
-        <v>6.560637015183309</v>
+        <v>10.52997060057707</v>
       </c>
       <c r="K2">
-        <v>10.98277366693583</v>
+        <v>13.82379104765765</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.00729228764453</v>
+        <v>17.03169587230134</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.45277042954018</v>
+        <v>12.04086693378411</v>
       </c>
       <c r="C3">
-        <v>9.451105625732961</v>
+        <v>10.37247870353628</v>
       </c>
       <c r="D3">
-        <v>2.155516295675947</v>
+        <v>5.317610910191508</v>
       </c>
       <c r="E3">
-        <v>6.963949578459127</v>
+        <v>11.82745611112445</v>
       </c>
       <c r="F3">
-        <v>43.85068767819686</v>
+        <v>51.23820060089868</v>
       </c>
       <c r="I3">
-        <v>29.48948530871252</v>
+        <v>35.14514794079964</v>
       </c>
       <c r="J3">
-        <v>6.535743330676453</v>
+        <v>10.54178900088674</v>
       </c>
       <c r="K3">
-        <v>10.42297918000228</v>
+        <v>13.77240958628189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.67570329328227</v>
+        <v>17.03829306940236</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.934453115665342</v>
+        <v>11.98964489756303</v>
       </c>
       <c r="C4">
-        <v>9.100569785333601</v>
+        <v>10.3147501515664</v>
       </c>
       <c r="D4">
-        <v>2.111421749108184</v>
+        <v>5.336914150959911</v>
       </c>
       <c r="E4">
-        <v>6.898172012069058</v>
+        <v>11.83991031635698</v>
       </c>
       <c r="F4">
-        <v>43.02716953836291</v>
+        <v>51.08074179322472</v>
       </c>
       <c r="I4">
-        <v>29.07171473365181</v>
+        <v>35.06197438401576</v>
       </c>
       <c r="J4">
-        <v>6.522897804884678</v>
+        <v>10.55010298782948</v>
       </c>
       <c r="K4">
-        <v>10.07333534933904</v>
+        <v>13.74485088046359</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.47554134915631</v>
+        <v>17.0460973057287</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.716637411401639</v>
+        <v>11.9698055924706</v>
       </c>
       <c r="C5">
-        <v>8.955815655076702</v>
+        <v>10.29191967988673</v>
       </c>
       <c r="D5">
-        <v>2.092907649229741</v>
+        <v>5.345097126633478</v>
       </c>
       <c r="E5">
-        <v>6.8722814938313</v>
+        <v>11.84549423694146</v>
       </c>
       <c r="F5">
-        <v>42.692923551117</v>
+        <v>51.01827354326347</v>
       </c>
       <c r="I5">
-        <v>28.90300929802541</v>
+        <v>35.02897880520535</v>
       </c>
       <c r="J5">
-        <v>6.518261097328286</v>
+        <v>10.55375708813996</v>
       </c>
       <c r="K5">
-        <v>9.929546877090244</v>
+        <v>13.73463357201729</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39493106021512</v>
+        <v>17.05022212707956</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.680068814980276</v>
+        <v>11.96657441124192</v>
       </c>
       <c r="C6">
-        <v>8.931668989610635</v>
+        <v>10.28817133365391</v>
       </c>
       <c r="D6">
-        <v>2.089800631605044</v>
+        <v>5.346475054978033</v>
       </c>
       <c r="E6">
-        <v>6.86803776044924</v>
+        <v>11.84645216902843</v>
       </c>
       <c r="F6">
-        <v>42.63751152339849</v>
+        <v>51.00800422687843</v>
       </c>
       <c r="I6">
-        <v>28.87509091225776</v>
+        <v>35.02355454567333</v>
       </c>
       <c r="J6">
-        <v>6.517526844028768</v>
+        <v>10.55437992443631</v>
       </c>
       <c r="K6">
-        <v>9.905598118456767</v>
+        <v>13.7329984444186</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.38160642088122</v>
+        <v>17.05096410934267</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.931542380545737</v>
+        <v>11.98937312047309</v>
       </c>
       <c r="C7">
-        <v>9.098625090255231</v>
+        <v>10.31443940858476</v>
       </c>
       <c r="D7">
-        <v>2.111174261740323</v>
+        <v>5.337023225995006</v>
       </c>
       <c r="E7">
-        <v>6.897819134563868</v>
+        <v>11.83998356320584</v>
       </c>
       <c r="F7">
-        <v>43.02265597481234</v>
+        <v>51.07989240767553</v>
       </c>
       <c r="I7">
-        <v>29.06943318790734</v>
+        <v>35.06152573984583</v>
       </c>
       <c r="J7">
-        <v>6.522832871738073</v>
+        <v>10.55015119071906</v>
       </c>
       <c r="K7">
-        <v>10.071401185278</v>
+        <v>13.7447089723594</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.47445020750772</v>
+        <v>17.04614910958167</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.98351445759277</v>
+        <v>12.09899307288976</v>
       </c>
       <c r="C8">
-        <v>9.818223199318323</v>
+        <v>10.43638441402232</v>
       </c>
       <c r="D8">
-        <v>2.200690930258422</v>
+        <v>5.298093289002699</v>
       </c>
       <c r="E8">
-        <v>7.037249978968918</v>
+        <v>11.81590509864028</v>
       </c>
       <c r="F8">
-        <v>44.7333081994153</v>
+        <v>51.41192946782491</v>
       </c>
       <c r="I8">
-        <v>29.94035645080798</v>
+        <v>35.23693478587316</v>
       </c>
       <c r="J8">
-        <v>6.55153800597528</v>
+        <v>10.53382622564335</v>
       </c>
       <c r="K8">
-        <v>10.79108706283631</v>
+        <v>13.80525296986628</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.89230194172848</v>
+        <v>17.03319206768051</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.84407181893016</v>
+        <v>12.34466704629653</v>
       </c>
       <c r="C9">
-        <v>11.16007148581163</v>
+        <v>10.69548322837257</v>
       </c>
       <c r="D9">
-        <v>2.358674877864117</v>
+        <v>5.23169332289188</v>
       </c>
       <c r="E9">
-        <v>7.339061736642306</v>
+        <v>11.78473225718041</v>
       </c>
       <c r="F9">
-        <v>48.11204134455394</v>
+        <v>52.11390353426017</v>
       </c>
       <c r="I9">
-        <v>31.69215456738488</v>
+        <v>35.60819839588336</v>
       </c>
       <c r="J9">
-        <v>6.6278994722153</v>
+        <v>10.51019541000403</v>
       </c>
       <c r="K9">
-        <v>12.48010536884881</v>
+        <v>13.95514050277604</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.7352042076353</v>
+        <v>17.03752013410459</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.09299806486136</v>
+        <v>12.5422063228092</v>
       </c>
       <c r="C10">
-        <v>12.09991149553735</v>
+        <v>10.89637817595271</v>
       </c>
       <c r="D10">
-        <v>2.463825084532909</v>
+        <v>5.188927412982413</v>
       </c>
       <c r="E10">
-        <v>7.577765167715862</v>
+        <v>11.77159993853598</v>
       </c>
       <c r="F10">
-        <v>50.59847949837135</v>
+        <v>52.65834176497859</v>
       </c>
       <c r="I10">
-        <v>33.00352702841257</v>
+        <v>35.89670185011016</v>
       </c>
       <c r="J10">
-        <v>6.697272872128562</v>
+        <v>10.49793332263314</v>
       </c>
       <c r="K10">
-        <v>13.68825966410637</v>
+        <v>14.08350743057729</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.36448802787961</v>
+        <v>17.05874291357842</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.63683625395861</v>
+        <v>12.6353848751939</v>
       </c>
       <c r="C11">
-        <v>12.51727820475877</v>
+        <v>10.98969237793403</v>
       </c>
       <c r="D11">
-        <v>2.509251803279168</v>
+        <v>5.170769980036344</v>
       </c>
       <c r="E11">
-        <v>7.689991558631661</v>
+        <v>11.76774293534281</v>
       </c>
       <c r="F11">
-        <v>51.729155236599</v>
+        <v>52.91172146767533</v>
       </c>
       <c r="I11">
-        <v>33.60519676350113</v>
+        <v>36.03115638467137</v>
       </c>
       <c r="J11">
-        <v>6.731955394868249</v>
+        <v>10.49345969470607</v>
       </c>
       <c r="K11">
-        <v>14.21465947648303</v>
+        <v>14.14568078525626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12.6522702569558</v>
+        <v>17.07228812916987</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83939607678698</v>
+        <v>12.67111206126513</v>
       </c>
       <c r="C12">
-        <v>12.67387947411183</v>
+        <v>11.02527361381435</v>
       </c>
       <c r="D12">
-        <v>2.526104756631116</v>
+        <v>5.164080058425564</v>
       </c>
       <c r="E12">
-        <v>7.733010511840662</v>
+        <v>11.7665862341402</v>
       </c>
       <c r="F12">
-        <v>52.15720432085153</v>
+        <v>53.00844342986918</v>
       </c>
       <c r="I12">
-        <v>33.83377891057217</v>
+        <v>36.08251348016773</v>
       </c>
       <c r="J12">
-        <v>6.745559422127552</v>
+        <v>10.49192420386951</v>
       </c>
       <c r="K12">
-        <v>14.41077889686709</v>
+        <v>14.16975024953961</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.7614273803549</v>
+        <v>17.0779737161335</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.79591957274649</v>
+        <v>12.66339844941499</v>
       </c>
       <c r="C13">
-        <v>12.64021639074015</v>
+        <v>11.01760016211028</v>
       </c>
       <c r="D13">
-        <v>2.522490748361387</v>
+        <v>5.165512594103984</v>
       </c>
       <c r="E13">
-        <v>7.723722423013972</v>
+        <v>11.76682184608966</v>
       </c>
       <c r="F13">
-        <v>52.06502157131365</v>
+        <v>52.98757905716525</v>
       </c>
       <c r="I13">
-        <v>33.78451624410742</v>
+        <v>36.07143347448067</v>
       </c>
       <c r="J13">
-        <v>6.74260826909138</v>
+        <v>10.49224785076447</v>
       </c>
       <c r="K13">
-        <v>14.36868213627153</v>
+        <v>14.16454336683786</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12.73791085549324</v>
+        <v>17.07672453716332</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.65356801460301</v>
+        <v>12.63831550426018</v>
       </c>
       <c r="C14">
-        <v>12.53019069099254</v>
+        <v>10.99261493679085</v>
       </c>
       <c r="D14">
-        <v>2.510645320786696</v>
+        <v>5.170215873780915</v>
       </c>
       <c r="E14">
-        <v>7.693520306522926</v>
+        <v>11.76764168655395</v>
       </c>
       <c r="F14">
-        <v>51.76437346590862</v>
+        <v>52.91966364308003</v>
       </c>
       <c r="I14">
-        <v>33.62398733969603</v>
+        <v>36.03537282073241</v>
       </c>
       <c r="J14">
-        <v>6.733065049013474</v>
+        <v>10.49333019235318</v>
       </c>
       <c r="K14">
-        <v>14.23085809137893</v>
+        <v>14.14765056175468</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>12.66124722665934</v>
+        <v>17.07274475655916</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.56593700391241</v>
+        <v>12.62300806524374</v>
       </c>
       <c r="C15">
-        <v>12.46260931879108</v>
+        <v>10.97734174653709</v>
       </c>
       <c r="D15">
-        <v>2.503344094216073</v>
+        <v>5.173120960874352</v>
       </c>
       <c r="E15">
-        <v>7.675088518366096</v>
+        <v>11.76818341601086</v>
       </c>
       <c r="F15">
-        <v>51.58020245218431</v>
+        <v>52.87816262835507</v>
       </c>
       <c r="I15">
-        <v>33.52575611277231</v>
+        <v>36.01334159654591</v>
       </c>
       <c r="J15">
-        <v>6.727281484229737</v>
+        <v>10.4940138013271</v>
       </c>
       <c r="K15">
-        <v>14.14602166444246</v>
+        <v>14.13737116180953</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12.61431116195066</v>
+        <v>17.07037937090745</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05697749583373</v>
+        <v>12.53618070101222</v>
       </c>
       <c r="C16">
-        <v>12.07243172622536</v>
+        <v>10.89031591838782</v>
       </c>
       <c r="D16">
-        <v>2.46080764653368</v>
+        <v>5.190140091116693</v>
       </c>
       <c r="E16">
-        <v>7.570503887480721</v>
+        <v>11.77189455655568</v>
       </c>
       <c r="F16">
-        <v>50.52457295472495</v>
+        <v>52.64189360735276</v>
       </c>
       <c r="I16">
-        <v>32.96430953863687</v>
+        <v>35.8879778958191</v>
       </c>
       <c r="J16">
-        <v>6.695070934785317</v>
+        <v>10.49824788884071</v>
       </c>
       <c r="K16">
-        <v>13.6534013660165</v>
+        <v>14.07951880970731</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.34570770836413</v>
+        <v>17.05793573376525</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.73860105862111</v>
+        <v>12.48374019968291</v>
       </c>
       <c r="C17">
-        <v>11.8304686850568</v>
+        <v>10.83739916630715</v>
       </c>
       <c r="D17">
-        <v>2.434094266925709</v>
+        <v>5.200912536596503</v>
       </c>
       <c r="E17">
-        <v>7.50727420022535</v>
+        <v>11.77471306559574</v>
       </c>
       <c r="F17">
-        <v>49.8768161516128</v>
+        <v>52.49837895251304</v>
       </c>
       <c r="I17">
-        <v>32.62118878800538</v>
+        <v>35.81188029302526</v>
       </c>
       <c r="J17">
-        <v>6.67612561639522</v>
+        <v>10.5011280753793</v>
       </c>
       <c r="K17">
-        <v>13.34533520068795</v>
+        <v>14.04498386029917</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.18128485624862</v>
+        <v>17.05129638646</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.55318422366646</v>
+        <v>12.45389213952835</v>
       </c>
       <c r="C18">
-        <v>11.69033796913618</v>
+        <v>10.80714606728003</v>
       </c>
       <c r="D18">
-        <v>2.418503083778186</v>
+        <v>5.207230677030529</v>
       </c>
       <c r="E18">
-        <v>7.471248630413199</v>
+        <v>11.77653349540067</v>
       </c>
       <c r="F18">
-        <v>49.50420413924713</v>
+        <v>52.41637378431277</v>
       </c>
       <c r="I18">
-        <v>32.42431493429234</v>
+        <v>35.76841461912829</v>
       </c>
       <c r="J18">
-        <v>6.66552147823957</v>
+        <v>10.50288865529546</v>
       </c>
       <c r="K18">
-        <v>13.16595274154355</v>
+        <v>14.02547705044073</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.08685736637945</v>
+        <v>17.04784405743356</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.490007735657</v>
+        <v>12.44384112303781</v>
       </c>
       <c r="C19">
-        <v>11.64272716614184</v>
+        <v>10.79693532027974</v>
       </c>
       <c r="D19">
-        <v>2.41318539729014</v>
+        <v>5.20939088260532</v>
       </c>
       <c r="E19">
-        <v>7.45910992564175</v>
+        <v>11.7771841062829</v>
       </c>
       <c r="F19">
-        <v>49.37803987107027</v>
+        <v>52.38870256575666</v>
       </c>
       <c r="I19">
-        <v>32.35773947998216</v>
+        <v>35.75375063587174</v>
       </c>
       <c r="J19">
-        <v>6.661980750450154</v>
+        <v>10.50350262190983</v>
       </c>
       <c r="K19">
-        <v>13.10483716839961</v>
+        <v>14.01893417645637</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.05491202475777</v>
+        <v>17.04673818551209</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77272950956262</v>
+        <v>12.48929029608429</v>
       </c>
       <c r="C20">
-        <v>11.85632538148538</v>
+        <v>10.84301351227536</v>
       </c>
       <c r="D20">
-        <v>2.436961401366811</v>
+        <v>5.199753157378216</v>
       </c>
       <c r="E20">
-        <v>7.513969688781574</v>
+        <v>11.77439240759064</v>
       </c>
       <c r="F20">
-        <v>49.94577561367016</v>
+        <v>52.513600724832</v>
       </c>
       <c r="I20">
-        <v>32.65766491520964</v>
+        <v>35.81994972768111</v>
       </c>
       <c r="J20">
-        <v>6.678111934936791</v>
+        <v>10.50081071553282</v>
       </c>
       <c r="K20">
-        <v>13.37835529638073</v>
+        <v>14.048623363614</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.19877335355598</v>
+        <v>17.05196525205957</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.69547087870301</v>
+        <v>12.64567124267105</v>
       </c>
       <c r="C21">
-        <v>12.56254690675163</v>
+        <v>10.99994730353215</v>
       </c>
       <c r="D21">
-        <v>2.514134110040404</v>
+        <v>5.168829365902186</v>
       </c>
       <c r="E21">
-        <v>7.702377252730491</v>
+        <v>11.76739263776822</v>
       </c>
       <c r="F21">
-        <v>51.85268431963632</v>
+        <v>52.93959147544163</v>
       </c>
       <c r="I21">
-        <v>33.67111823278031</v>
+        <v>36.04595287351016</v>
       </c>
       <c r="J21">
-        <v>6.735855176960444</v>
+        <v>10.49300798077412</v>
       </c>
       <c r="K21">
-        <v>14.27142665913708</v>
+        <v>14.15259826411024</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12.68376052321229</v>
+        <v>17.0738986443423</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.27889618248246</v>
+        <v>12.75043794322553</v>
       </c>
       <c r="C22">
-        <v>13.03081917565533</v>
+        <v>11.10392682654408</v>
       </c>
       <c r="D22">
-        <v>2.562534402397918</v>
+        <v>5.149702198813885</v>
       </c>
       <c r="E22">
-        <v>7.828552460818508</v>
+        <v>11.76458868904591</v>
       </c>
       <c r="F22">
-        <v>53.0983157646226</v>
+        <v>53.22248054920482</v>
       </c>
       <c r="I22">
-        <v>34.33782010723206</v>
+        <v>36.19622601020012</v>
       </c>
       <c r="J22">
-        <v>6.776347339379467</v>
+        <v>10.48883260940944</v>
       </c>
       <c r="K22">
-        <v>14.83641340770594</v>
+        <v>14.22360759230101</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.05075789542688</v>
+        <v>17.09147415940599</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.96926734655373</v>
+        <v>12.69429906556653</v>
       </c>
       <c r="C23">
-        <v>12.77459990347258</v>
+        <v>11.0483121400207</v>
       </c>
       <c r="D23">
-        <v>2.536889590877733</v>
+        <v>5.159811800934128</v>
       </c>
       <c r="E23">
-        <v>7.760931954533749</v>
+        <v>11.76592339217849</v>
       </c>
       <c r="F23">
-        <v>52.43356034998708</v>
+        <v>53.07110394484378</v>
       </c>
       <c r="I23">
-        <v>33.98158179499733</v>
+        <v>36.11579430544898</v>
       </c>
       <c r="J23">
-        <v>6.754476480354053</v>
+        <v>10.49097660899449</v>
       </c>
       <c r="K23">
-        <v>14.53653723473799</v>
+        <v>14.1854350413659</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>12.83195618183036</v>
+        <v>17.08179842145176</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.75730745234006</v>
+        <v>12.48678015830039</v>
       </c>
       <c r="C24">
-        <v>11.84463875617246</v>
+        <v>10.84047473624926</v>
       </c>
       <c r="D24">
-        <v>2.435665896346233</v>
+        <v>5.20027692357875</v>
       </c>
       <c r="E24">
-        <v>7.510941642720264</v>
+        <v>11.77453675397184</v>
       </c>
       <c r="F24">
-        <v>49.9145996839561</v>
+        <v>52.50671739002522</v>
       </c>
       <c r="I24">
-        <v>32.6411728408962</v>
+        <v>35.81630065054787</v>
       </c>
       <c r="J24">
-        <v>6.677213025546033</v>
+        <v>10.50095386770738</v>
       </c>
       <c r="K24">
-        <v>13.36343399398792</v>
+        <v>14.04697685950987</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.19086648499286</v>
+        <v>17.05166172162985</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36187970101884</v>
+        <v>12.27508518096457</v>
       </c>
       <c r="C25">
-        <v>10.8049869873182</v>
+        <v>10.62341790507813</v>
       </c>
       <c r="D25">
-        <v>2.31783993146016</v>
+        <v>5.248596386053745</v>
       </c>
       <c r="E25">
-        <v>7.254411850314857</v>
+        <v>11.79144835106125</v>
       </c>
       <c r="F25">
-        <v>47.19666659542251</v>
+        <v>51.91878645273509</v>
       </c>
       <c r="I25">
-        <v>31.21384734284596</v>
+        <v>35.50492947291686</v>
       </c>
       <c r="J25">
-        <v>6.604988879887816</v>
+        <v>10.51569179968744</v>
       </c>
       <c r="K25">
-        <v>12.01388563104387</v>
+        <v>13.91132861611729</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.50514819829002</v>
+        <v>17.03317275678769</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.13083128559418</v>
+        <v>11.25466823924342</v>
       </c>
       <c r="C2">
-        <v>10.47083485335457</v>
+        <v>10.00871991718334</v>
       </c>
       <c r="D2">
-        <v>5.28821961223046</v>
+        <v>2.223766451642565</v>
       </c>
       <c r="E2">
-        <v>11.81046704551659</v>
+        <v>7.076963190691105</v>
       </c>
       <c r="F2">
-        <v>51.50541655708697</v>
+        <v>45.19892369226222</v>
       </c>
       <c r="I2">
-        <v>35.28633954450259</v>
+        <v>30.17942351604959</v>
       </c>
       <c r="J2">
-        <v>10.52997060057707</v>
+        <v>6.560637015183097</v>
       </c>
       <c r="K2">
-        <v>13.82379104765765</v>
+        <v>10.98277366693586</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.03169587230134</v>
+        <v>11.00729228764447</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.04086693378411</v>
+        <v>10.45277042954024</v>
       </c>
       <c r="C3">
-        <v>10.37247870353628</v>
+        <v>9.451105625732946</v>
       </c>
       <c r="D3">
-        <v>5.317610910191508</v>
+        <v>2.155516295676311</v>
       </c>
       <c r="E3">
-        <v>11.82745611112445</v>
+        <v>6.963949578459017</v>
       </c>
       <c r="F3">
-        <v>51.23820060089868</v>
+        <v>43.85068767819672</v>
       </c>
       <c r="I3">
-        <v>35.14514794079964</v>
+        <v>29.48948530871247</v>
       </c>
       <c r="J3">
-        <v>10.54178900088674</v>
+        <v>6.535743330676483</v>
       </c>
       <c r="K3">
-        <v>13.77240958628189</v>
+        <v>10.42297918000227</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.03829306940236</v>
+        <v>10.67570329328221</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.98964489756303</v>
+        <v>9.934453115665319</v>
       </c>
       <c r="C4">
-        <v>10.3147501515664</v>
+        <v>9.100569785333597</v>
       </c>
       <c r="D4">
-        <v>5.336914150959911</v>
+        <v>2.111421749108187</v>
       </c>
       <c r="E4">
-        <v>11.83991031635698</v>
+        <v>6.898172012069061</v>
       </c>
       <c r="F4">
-        <v>51.08074179322472</v>
+        <v>43.02716953836292</v>
       </c>
       <c r="I4">
-        <v>35.06197438401576</v>
+        <v>29.07171473365187</v>
       </c>
       <c r="J4">
-        <v>10.55010298782948</v>
+        <v>6.522897804884677</v>
       </c>
       <c r="K4">
-        <v>13.74485088046359</v>
+        <v>10.07333534933904</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.0460973057287</v>
+        <v>10.47554134915632</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9698055924706</v>
+        <v>9.716637411401614</v>
       </c>
       <c r="C5">
-        <v>10.29191967988673</v>
+        <v>8.955815655076696</v>
       </c>
       <c r="D5">
-        <v>5.345097126633478</v>
+        <v>2.092907649229681</v>
       </c>
       <c r="E5">
-        <v>11.84549423694146</v>
+        <v>6.87228149383131</v>
       </c>
       <c r="F5">
-        <v>51.01827354326347</v>
+        <v>42.69292355111693</v>
       </c>
       <c r="I5">
-        <v>35.02897880520535</v>
+        <v>28.90300929802538</v>
       </c>
       <c r="J5">
-        <v>10.55375708813996</v>
+        <v>6.518261097328345</v>
       </c>
       <c r="K5">
-        <v>13.73463357201729</v>
+        <v>9.929546877090239</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.05022212707956</v>
+        <v>10.39493106021512</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.96657441124192</v>
+        <v>9.680068814980274</v>
       </c>
       <c r="C6">
-        <v>10.28817133365391</v>
+        <v>8.931668989610532</v>
       </c>
       <c r="D6">
-        <v>5.346475054978033</v>
+        <v>2.089800631604918</v>
       </c>
       <c r="E6">
-        <v>11.84645216902843</v>
+        <v>6.868037760449377</v>
       </c>
       <c r="F6">
-        <v>51.00800422687843</v>
+        <v>42.63751152339857</v>
       </c>
       <c r="I6">
-        <v>35.02355454567333</v>
+        <v>28.8750909122578</v>
       </c>
       <c r="J6">
-        <v>10.55437992443631</v>
+        <v>6.517526844028791</v>
       </c>
       <c r="K6">
-        <v>13.7329984444186</v>
+        <v>9.905598118456727</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.05096410934267</v>
+        <v>10.38160642088125</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.98937312047309</v>
+        <v>9.93154238054584</v>
       </c>
       <c r="C7">
-        <v>10.31443940858476</v>
+        <v>9.098625090255199</v>
       </c>
       <c r="D7">
-        <v>5.337023225995006</v>
+        <v>2.111174261740314</v>
       </c>
       <c r="E7">
-        <v>11.83998356320584</v>
+        <v>6.897819134563919</v>
       </c>
       <c r="F7">
-        <v>51.07989240767553</v>
+        <v>43.02265597481237</v>
       </c>
       <c r="I7">
-        <v>35.06152573984583</v>
+        <v>29.06943318790728</v>
       </c>
       <c r="J7">
-        <v>10.55015119071906</v>
+        <v>6.522832871738052</v>
       </c>
       <c r="K7">
-        <v>13.7447089723594</v>
+        <v>10.07140118527795</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.04614910958167</v>
+        <v>10.47445020750769</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09899307288976</v>
+        <v>10.9835144575927</v>
       </c>
       <c r="C8">
-        <v>10.43638441402232</v>
+        <v>9.818223199318282</v>
       </c>
       <c r="D8">
-        <v>5.298093289002699</v>
+        <v>2.200690930258615</v>
       </c>
       <c r="E8">
-        <v>11.81590509864028</v>
+        <v>7.037249978968793</v>
       </c>
       <c r="F8">
-        <v>51.41192946782491</v>
+        <v>44.73330819941561</v>
       </c>
       <c r="I8">
-        <v>35.23693478587316</v>
+        <v>29.94035645080824</v>
       </c>
       <c r="J8">
-        <v>10.53382622564335</v>
+        <v>6.551538005975242</v>
       </c>
       <c r="K8">
-        <v>13.80525296986628</v>
+        <v>10.79108706283635</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.03319206768051</v>
+        <v>10.89230194172849</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.34466704629653</v>
+        <v>12.8440718189302</v>
       </c>
       <c r="C9">
-        <v>10.69548322837257</v>
+        <v>11.16007148581159</v>
       </c>
       <c r="D9">
-        <v>5.23169332289188</v>
+        <v>2.358674877864116</v>
       </c>
       <c r="E9">
-        <v>11.78473225718041</v>
+        <v>7.339061736642353</v>
       </c>
       <c r="F9">
-        <v>52.11390353426017</v>
+        <v>48.11204134455394</v>
       </c>
       <c r="I9">
-        <v>35.60819839588336</v>
+        <v>31.69215456738488</v>
       </c>
       <c r="J9">
-        <v>10.51019541000403</v>
+        <v>6.6278994722153</v>
       </c>
       <c r="K9">
-        <v>13.95514050277604</v>
+        <v>12.48010536884882</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.03752013410459</v>
+        <v>11.7352042076353</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.5422063228092</v>
+        <v>14.09299806486143</v>
       </c>
       <c r="C10">
-        <v>10.89637817595271</v>
+        <v>12.09991149553737</v>
       </c>
       <c r="D10">
-        <v>5.188927412982413</v>
+        <v>2.463825084532889</v>
       </c>
       <c r="E10">
-        <v>11.77159993853598</v>
+        <v>7.577765167715894</v>
       </c>
       <c r="F10">
-        <v>52.65834176497859</v>
+        <v>50.59847949837142</v>
       </c>
       <c r="I10">
-        <v>35.89670185011016</v>
+        <v>33.0035270284126</v>
       </c>
       <c r="J10">
-        <v>10.49793332263314</v>
+        <v>6.697272872128568</v>
       </c>
       <c r="K10">
-        <v>14.08350743057729</v>
+        <v>13.68825966410644</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.05874291357842</v>
+        <v>12.36448802787959</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.6353848751939</v>
+        <v>14.63683625395872</v>
       </c>
       <c r="C11">
-        <v>10.98969237793403</v>
+        <v>12.51727820475877</v>
       </c>
       <c r="D11">
-        <v>5.170769980036344</v>
+        <v>2.509251803279188</v>
       </c>
       <c r="E11">
-        <v>11.76774293534281</v>
+        <v>7.68999155863157</v>
       </c>
       <c r="F11">
-        <v>52.91172146767533</v>
+        <v>51.72915523659912</v>
       </c>
       <c r="I11">
-        <v>36.03115638467137</v>
+        <v>33.60519676350124</v>
       </c>
       <c r="J11">
-        <v>10.49345969470607</v>
+        <v>6.731955394868222</v>
       </c>
       <c r="K11">
-        <v>14.14568078525626</v>
+        <v>14.21465947648315</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.07228812916987</v>
+        <v>12.65227025695572</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.67111206126513</v>
+        <v>14.83939607678704</v>
       </c>
       <c r="C12">
-        <v>11.02527361381435</v>
+        <v>12.67387947411175</v>
       </c>
       <c r="D12">
-        <v>5.164080058425564</v>
+        <v>2.526104756631347</v>
       </c>
       <c r="E12">
-        <v>11.7665862341402</v>
+        <v>7.733010511840632</v>
       </c>
       <c r="F12">
-        <v>53.00844342986918</v>
+        <v>52.15720432085161</v>
       </c>
       <c r="I12">
-        <v>36.08251348016773</v>
+        <v>33.83377891057226</v>
       </c>
       <c r="J12">
-        <v>10.49192420386951</v>
+        <v>6.745559422127632</v>
       </c>
       <c r="K12">
-        <v>14.16975024953961</v>
+        <v>14.41077889686709</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.0779737161335</v>
+        <v>12.7614273803549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.66339844941499</v>
+        <v>14.79591957274647</v>
       </c>
       <c r="C13">
-        <v>11.01760016211028</v>
+        <v>12.64021639074014</v>
       </c>
       <c r="D13">
-        <v>5.165512594103984</v>
+        <v>2.522490748361305</v>
       </c>
       <c r="E13">
-        <v>11.76682184608966</v>
+        <v>7.723722423014014</v>
       </c>
       <c r="F13">
-        <v>52.98757905716525</v>
+        <v>52.06502157131374</v>
       </c>
       <c r="I13">
-        <v>36.07143347448067</v>
+        <v>33.78451624410746</v>
       </c>
       <c r="J13">
-        <v>10.49224785076447</v>
+        <v>6.742608269091415</v>
       </c>
       <c r="K13">
-        <v>14.16454336683786</v>
+        <v>14.36868213627154</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.07672453716332</v>
+        <v>12.73791085549325</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.63831550426018</v>
+        <v>14.653568014603</v>
       </c>
       <c r="C14">
-        <v>10.99261493679085</v>
+        <v>12.53019069099255</v>
       </c>
       <c r="D14">
-        <v>5.170215873780915</v>
+        <v>2.510645320786696</v>
       </c>
       <c r="E14">
-        <v>11.76764168655395</v>
+        <v>7.693520306522897</v>
       </c>
       <c r="F14">
-        <v>52.91966364308003</v>
+        <v>51.76437346590863</v>
       </c>
       <c r="I14">
-        <v>36.03537282073241</v>
+        <v>33.62398733969603</v>
       </c>
       <c r="J14">
-        <v>10.49333019235318</v>
+        <v>6.733065049013444</v>
       </c>
       <c r="K14">
-        <v>14.14765056175468</v>
+        <v>14.23085809137893</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.07274475655916</v>
+        <v>12.66124722665933</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.62300806524374</v>
+        <v>14.56593700391247</v>
       </c>
       <c r="C15">
-        <v>10.97734174653709</v>
+        <v>12.46260931879106</v>
       </c>
       <c r="D15">
-        <v>5.173120960874352</v>
+        <v>2.503344094215924</v>
       </c>
       <c r="E15">
-        <v>11.76818341601086</v>
+        <v>7.67508851836619</v>
       </c>
       <c r="F15">
-        <v>52.87816262835507</v>
+        <v>51.58020245218445</v>
       </c>
       <c r="I15">
-        <v>36.01334159654591</v>
+        <v>33.52575611277243</v>
       </c>
       <c r="J15">
-        <v>10.4940138013271</v>
+        <v>6.727281484229731</v>
       </c>
       <c r="K15">
-        <v>14.13737116180953</v>
+        <v>14.14602166444252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.07037937090745</v>
+        <v>12.61431116195062</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.53618070101222</v>
+        <v>14.05697749583378</v>
       </c>
       <c r="C16">
-        <v>10.89031591838782</v>
+        <v>12.07243172622532</v>
       </c>
       <c r="D16">
-        <v>5.190140091116693</v>
+        <v>2.460807646533612</v>
       </c>
       <c r="E16">
-        <v>11.77189455655568</v>
+        <v>7.570503887480706</v>
       </c>
       <c r="F16">
-        <v>52.64189360735276</v>
+        <v>50.52457295472493</v>
       </c>
       <c r="I16">
-        <v>35.8879778958191</v>
+        <v>32.96430953863685</v>
       </c>
       <c r="J16">
-        <v>10.49824788884071</v>
+        <v>6.695070934785309</v>
       </c>
       <c r="K16">
-        <v>14.07951880970731</v>
+        <v>13.65340136601651</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.05793573376525</v>
+        <v>12.3457077083641</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.48374019968291</v>
+        <v>13.73860105862105</v>
       </c>
       <c r="C17">
-        <v>10.83739916630715</v>
+        <v>11.83046868505681</v>
       </c>
       <c r="D17">
-        <v>5.200912536596503</v>
+        <v>2.434094266925826</v>
       </c>
       <c r="E17">
-        <v>11.77471306559574</v>
+        <v>7.50727420022535</v>
       </c>
       <c r="F17">
-        <v>52.49837895251304</v>
+        <v>49.87681615161294</v>
       </c>
       <c r="I17">
-        <v>35.81188029302526</v>
+        <v>32.6211887880055</v>
       </c>
       <c r="J17">
-        <v>10.5011280753793</v>
+        <v>6.676125616395318</v>
       </c>
       <c r="K17">
-        <v>14.04498386029917</v>
+        <v>13.34533520068795</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.05129638646</v>
+        <v>12.18128485624859</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.45389213952835</v>
+        <v>13.55318422366646</v>
       </c>
       <c r="C18">
-        <v>10.80714606728003</v>
+        <v>11.69033796913618</v>
       </c>
       <c r="D18">
-        <v>5.207230677030529</v>
+        <v>2.418503083778179</v>
       </c>
       <c r="E18">
-        <v>11.77653349540067</v>
+        <v>7.471248630413192</v>
       </c>
       <c r="F18">
-        <v>52.41637378431277</v>
+        <v>49.50420413924708</v>
       </c>
       <c r="I18">
-        <v>35.76841461912829</v>
+        <v>32.4243149342923</v>
       </c>
       <c r="J18">
-        <v>10.50288865529546</v>
+        <v>6.665521478239572</v>
       </c>
       <c r="K18">
-        <v>14.02547705044073</v>
+        <v>13.16595274154354</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.04784405743356</v>
+        <v>12.08685736637945</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.44384112303781</v>
+        <v>13.490007735657</v>
       </c>
       <c r="C19">
-        <v>10.79693532027974</v>
+        <v>11.64272716614181</v>
       </c>
       <c r="D19">
-        <v>5.20939088260532</v>
+        <v>2.413185397290509</v>
       </c>
       <c r="E19">
-        <v>11.7771841062829</v>
+        <v>7.459109925641735</v>
       </c>
       <c r="F19">
-        <v>52.38870256575666</v>
+        <v>49.37803987107034</v>
       </c>
       <c r="I19">
-        <v>35.75375063587174</v>
+        <v>32.35773947998228</v>
       </c>
       <c r="J19">
-        <v>10.50350262190983</v>
+        <v>6.661980750450201</v>
       </c>
       <c r="K19">
-        <v>14.01893417645637</v>
+        <v>13.1048371683996</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.04673818551209</v>
+        <v>12.05491202475775</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.48929029608429</v>
+        <v>13.77272950956274</v>
       </c>
       <c r="C20">
-        <v>10.84301351227536</v>
+        <v>11.85632538148539</v>
       </c>
       <c r="D20">
-        <v>5.199753157378216</v>
+        <v>2.436961401366648</v>
       </c>
       <c r="E20">
-        <v>11.77439240759064</v>
+        <v>7.513969688781611</v>
       </c>
       <c r="F20">
-        <v>52.513600724832</v>
+        <v>49.9457756136703</v>
       </c>
       <c r="I20">
-        <v>35.81994972768111</v>
+        <v>32.65766491520971</v>
       </c>
       <c r="J20">
-        <v>10.50081071553282</v>
+        <v>6.678111934936816</v>
       </c>
       <c r="K20">
-        <v>14.048623363614</v>
+        <v>13.37835529638081</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.05196525205957</v>
+        <v>12.19877335355594</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.64567124267105</v>
+        <v>14.69547087870312</v>
       </c>
       <c r="C21">
-        <v>10.99994730353215</v>
+        <v>12.56254690675161</v>
       </c>
       <c r="D21">
-        <v>5.168829365902186</v>
+        <v>2.514134110040458</v>
       </c>
       <c r="E21">
-        <v>11.76739263776822</v>
+        <v>7.702377252730447</v>
       </c>
       <c r="F21">
-        <v>52.93959147544163</v>
+        <v>51.85268431963649</v>
       </c>
       <c r="I21">
-        <v>36.04595287351016</v>
+        <v>33.67111823278039</v>
       </c>
       <c r="J21">
-        <v>10.49300798077412</v>
+        <v>6.735855176960473</v>
       </c>
       <c r="K21">
-        <v>14.15259826411024</v>
+        <v>14.27142665913713</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.0738986443423</v>
+        <v>12.68376052321226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.75043794322553</v>
+        <v>15.27889618248235</v>
       </c>
       <c r="C22">
-        <v>11.10392682654408</v>
+        <v>13.03081917565519</v>
       </c>
       <c r="D22">
-        <v>5.149702198813885</v>
+        <v>2.562534402398176</v>
       </c>
       <c r="E22">
-        <v>11.76458868904591</v>
+        <v>7.828552460818355</v>
       </c>
       <c r="F22">
-        <v>53.22248054920482</v>
+        <v>53.0983157646227</v>
       </c>
       <c r="I22">
-        <v>36.19622601020012</v>
+        <v>34.33782010723219</v>
       </c>
       <c r="J22">
-        <v>10.48883260940944</v>
+        <v>6.776347339379388</v>
       </c>
       <c r="K22">
-        <v>14.22360759230101</v>
+        <v>14.83641340770581</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.09147415940599</v>
+        <v>13.05075789542687</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.69429906556653</v>
+        <v>14.96926734655385</v>
       </c>
       <c r="C23">
-        <v>11.0483121400207</v>
+        <v>12.77459990347255</v>
       </c>
       <c r="D23">
-        <v>5.159811800934128</v>
+        <v>2.536889590877501</v>
       </c>
       <c r="E23">
-        <v>11.76592339217849</v>
+        <v>7.760931954533712</v>
       </c>
       <c r="F23">
-        <v>53.07110394484378</v>
+        <v>52.4335603499872</v>
       </c>
       <c r="I23">
-        <v>36.11579430544898</v>
+        <v>33.9815817949974</v>
       </c>
       <c r="J23">
-        <v>10.49097660899449</v>
+        <v>6.754476480353986</v>
       </c>
       <c r="K23">
-        <v>14.1854350413659</v>
+        <v>14.53653723473814</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.08179842145176</v>
+        <v>12.83195618183031</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.48678015830039</v>
+        <v>13.75730745234006</v>
       </c>
       <c r="C24">
-        <v>10.84047473624926</v>
+        <v>11.84463875617235</v>
       </c>
       <c r="D24">
-        <v>5.20027692357875</v>
+        <v>2.435665896346308</v>
       </c>
       <c r="E24">
-        <v>11.77453675397184</v>
+        <v>7.510941642720259</v>
       </c>
       <c r="F24">
-        <v>52.50671739002522</v>
+        <v>49.91459968395623</v>
       </c>
       <c r="I24">
-        <v>35.81630065054787</v>
+        <v>32.6411728408963</v>
       </c>
       <c r="J24">
-        <v>10.50095386770738</v>
+        <v>6.677213025546057</v>
       </c>
       <c r="K24">
-        <v>14.04697685950987</v>
+        <v>13.36343399398783</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.05166172162985</v>
+        <v>12.19086648499288</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.27508518096457</v>
+        <v>12.36187970101888</v>
       </c>
       <c r="C25">
-        <v>10.62341790507813</v>
+        <v>10.80498698731818</v>
       </c>
       <c r="D25">
-        <v>5.248596386053745</v>
+        <v>2.317839931460287</v>
       </c>
       <c r="E25">
-        <v>11.79144835106125</v>
+        <v>7.254411850314908</v>
       </c>
       <c r="F25">
-        <v>51.91878645273509</v>
+        <v>47.19666659542256</v>
       </c>
       <c r="I25">
-        <v>35.50492947291686</v>
+        <v>31.21384734284604</v>
       </c>
       <c r="J25">
-        <v>10.51569179968744</v>
+        <v>6.60498887988793</v>
       </c>
       <c r="K25">
-        <v>13.91132861611729</v>
+        <v>12.01388563104389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.03317275678769</v>
+        <v>11.50514819829003</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.25466823924342</v>
+        <v>12.34270311278681</v>
       </c>
       <c r="C2">
-        <v>10.00871991718334</v>
+        <v>11.04546426593226</v>
       </c>
       <c r="D2">
-        <v>2.223766451642565</v>
+        <v>3.453587502343548</v>
       </c>
       <c r="E2">
-        <v>7.076963190691105</v>
+        <v>8.817837710037081</v>
       </c>
       <c r="F2">
-        <v>45.19892369226222</v>
+        <v>44.21685861352945</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.195417884740329</v>
       </c>
       <c r="I2">
-        <v>30.17942351604959</v>
+        <v>4.241661454694501</v>
       </c>
       <c r="J2">
-        <v>6.560637015183097</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>10.98277366693586</v>
+        <v>28.84095371600178</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.93959253252107</v>
       </c>
       <c r="M2">
-        <v>11.00729228764447</v>
+        <v>12.10542473488568</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,40 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.45277042954024</v>
+        <v>11.51466810262373</v>
       </c>
       <c r="C3">
-        <v>9.451105625732946</v>
+        <v>10.37804754967511</v>
       </c>
       <c r="D3">
-        <v>2.155516295676311</v>
+        <v>3.336775006746785</v>
       </c>
       <c r="E3">
-        <v>6.963949578459017</v>
+        <v>8.292605013409272</v>
       </c>
       <c r="F3">
-        <v>43.85068767819672</v>
+        <v>42.48293383082103</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.499106201769287</v>
       </c>
       <c r="I3">
-        <v>29.48948530871247</v>
+        <v>4.478565915025758</v>
       </c>
       <c r="J3">
-        <v>6.535743330676483</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.42297918000227</v>
+        <v>27.96204458972462</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.650572342930394</v>
       </c>
       <c r="M3">
-        <v>10.67570329328221</v>
+        <v>11.42307264323084</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -497,40 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.934453115665319</v>
+        <v>10.97546670122945</v>
       </c>
       <c r="C4">
-        <v>9.100569785333597</v>
+        <v>9.955428223265038</v>
       </c>
       <c r="D4">
-        <v>2.111421749108187</v>
+        <v>3.264799101540084</v>
       </c>
       <c r="E4">
-        <v>6.898172012069061</v>
+        <v>7.955278855054651</v>
       </c>
       <c r="F4">
-        <v>43.02716953836292</v>
+        <v>41.37799965969545</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.691780545589721</v>
       </c>
       <c r="I4">
-        <v>29.07171473365187</v>
+        <v>4.629146228235275</v>
       </c>
       <c r="J4">
-        <v>6.522897804884677</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.07333534933904</v>
+        <v>27.40228944477115</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.466094680802698</v>
       </c>
       <c r="M4">
-        <v>10.47554134915632</v>
+        <v>10.98755641217222</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -538,40 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.716637411401614</v>
+        <v>10.74617089314203</v>
       </c>
       <c r="C5">
-        <v>8.955815655076696</v>
+        <v>9.787999269588548</v>
       </c>
       <c r="D5">
-        <v>2.092907649229681</v>
+        <v>3.240511629583922</v>
       </c>
       <c r="E5">
-        <v>6.87228149383131</v>
+        <v>7.817595733626873</v>
       </c>
       <c r="F5">
-        <v>42.69292355111693</v>
+        <v>40.88414131059164</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.77244248576093</v>
       </c>
       <c r="I5">
-        <v>28.90300929802538</v>
+        <v>4.694410714235038</v>
       </c>
       <c r="J5">
-        <v>6.518261097328345</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.929546877090239</v>
+        <v>27.14307347702942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.388134201364558</v>
       </c>
       <c r="M5">
-        <v>10.39493106021512</v>
+        <v>10.80777966285703</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -579,40 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.680068814980274</v>
+        <v>10.70545167257748</v>
       </c>
       <c r="C6">
-        <v>8.931668989610532</v>
+        <v>9.769658364544462</v>
       </c>
       <c r="D6">
-        <v>2.089800631604918</v>
+        <v>3.242731026109094</v>
       </c>
       <c r="E6">
-        <v>6.868037760449377</v>
+        <v>7.798773642905998</v>
       </c>
       <c r="F6">
-        <v>42.63751152339857</v>
+        <v>40.76008588492081</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.786605052944218</v>
       </c>
       <c r="I6">
-        <v>28.8750909122578</v>
+        <v>4.708610536667821</v>
       </c>
       <c r="J6">
-        <v>6.517526844028791</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.905598118456727</v>
+        <v>27.06761911924927</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.373791725599422</v>
       </c>
       <c r="M6">
-        <v>10.38160642088125</v>
+        <v>10.77977994944866</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -620,40 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.93154238054584</v>
+        <v>10.9666034853206</v>
       </c>
       <c r="C7">
-        <v>9.098625090255199</v>
+        <v>9.978928366781997</v>
       </c>
       <c r="D7">
-        <v>2.111174261740314</v>
+        <v>3.281413001799311</v>
       </c>
       <c r="E7">
-        <v>6.897819134563919</v>
+        <v>7.96482389989078</v>
       </c>
       <c r="F7">
-        <v>43.02265597481237</v>
+        <v>41.25963503062467</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.694681573530934</v>
       </c>
       <c r="I7">
-        <v>29.06943318790728</v>
+        <v>4.638754931091537</v>
       </c>
       <c r="J7">
-        <v>6.522832871738052</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.07140118527795</v>
+        <v>27.31196383355013</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.461566689470595</v>
       </c>
       <c r="M7">
-        <v>10.47445020750769</v>
+        <v>10.99070632077439</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -661,40 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9835144575927</v>
+        <v>12.0564263331412</v>
       </c>
       <c r="C8">
-        <v>9.818223199318282</v>
+        <v>10.84961590535778</v>
       </c>
       <c r="D8">
-        <v>2.200690930258615</v>
+        <v>3.435236698555445</v>
       </c>
       <c r="E8">
-        <v>7.037249978968793</v>
+        <v>8.653817628321699</v>
       </c>
       <c r="F8">
-        <v>44.73330819941561</v>
+        <v>43.48679534252214</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.301208138347182</v>
       </c>
       <c r="I8">
-        <v>29.94035645080824</v>
+        <v>4.333479792919702</v>
       </c>
       <c r="J8">
-        <v>6.551538005975242</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.79108706283635</v>
+        <v>28.43150982455531</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.837031550932656</v>
       </c>
       <c r="M8">
-        <v>10.89230194172849</v>
+        <v>11.88039298345487</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -702,40 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.8440718189302</v>
+        <v>13.96083270857839</v>
       </c>
       <c r="C9">
-        <v>11.16007148581159</v>
+        <v>12.40986486700916</v>
       </c>
       <c r="D9">
-        <v>2.358674877864116</v>
+        <v>3.70493099680347</v>
       </c>
       <c r="E9">
-        <v>7.339061736642353</v>
+        <v>9.868440309092625</v>
       </c>
       <c r="F9">
-        <v>48.11204134455394</v>
+        <v>47.70408310118631</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.574103157667937</v>
       </c>
       <c r="I9">
-        <v>31.69215456738488</v>
+        <v>3.759794915524407</v>
       </c>
       <c r="J9">
-        <v>6.6278994722153</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.48010536884882</v>
+        <v>30.60640793961054</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.522100741603817</v>
       </c>
       <c r="M9">
-        <v>11.7352042076353</v>
+        <v>13.67345206394755</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -743,40 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.09299806486143</v>
+        <v>15.2226508350074</v>
       </c>
       <c r="C10">
-        <v>12.09991149553737</v>
+        <v>13.45551586384615</v>
       </c>
       <c r="D10">
-        <v>2.463825084532889</v>
+        <v>3.876611257626475</v>
       </c>
       <c r="E10">
-        <v>7.577765167715894</v>
+        <v>10.48835933139674</v>
       </c>
       <c r="F10">
-        <v>50.59847949837142</v>
+        <v>50.02706246904207</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.107195251346642</v>
       </c>
       <c r="I10">
-        <v>33.0035270284126</v>
+        <v>3.376815658482422</v>
       </c>
       <c r="J10">
-        <v>6.697272872128568</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.68825966410644</v>
+        <v>31.74334075432752</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.860751541944372</v>
       </c>
       <c r="M10">
-        <v>12.36448802787959</v>
+        <v>14.8880427357062</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -784,40 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.63683625395872</v>
+        <v>15.84116681080027</v>
       </c>
       <c r="C11">
-        <v>12.51727820475877</v>
+        <v>13.34924943617984</v>
       </c>
       <c r="D11">
-        <v>2.509251803279188</v>
+        <v>3.710071914204591</v>
       </c>
       <c r="E11">
-        <v>7.68999155863157</v>
+        <v>9.0403674634845</v>
       </c>
       <c r="F11">
-        <v>51.72915523659912</v>
+        <v>46.57786802366932</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.005925250410572</v>
       </c>
       <c r="I11">
-        <v>33.60519676350124</v>
+        <v>3.311326284066535</v>
       </c>
       <c r="J11">
-        <v>6.731955394868222</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>14.21465947648315</v>
+        <v>29.47121649094232</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.95619744834399</v>
       </c>
       <c r="M11">
-        <v>12.65227025695572</v>
+        <v>15.26650714563115</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -825,40 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83939607678704</v>
+        <v>16.11738963651754</v>
       </c>
       <c r="C12">
-        <v>12.67387947411175</v>
+        <v>13.00010942649487</v>
       </c>
       <c r="D12">
-        <v>2.526104756631347</v>
+        <v>3.514324715108252</v>
       </c>
       <c r="E12">
-        <v>7.733010511840632</v>
+        <v>7.710417761969608</v>
       </c>
       <c r="F12">
-        <v>52.15720432085161</v>
+        <v>43.31618344776263</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.336901822814794</v>
       </c>
       <c r="I12">
-        <v>33.83377891057226</v>
+        <v>3.312783500400394</v>
       </c>
       <c r="J12">
-        <v>6.745559422127632</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.41077889686709</v>
+        <v>27.44868811296823</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.19996400114224</v>
       </c>
       <c r="M12">
-        <v>12.7614273803549</v>
+        <v>15.33517862533095</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -866,40 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.79591957274647</v>
+        <v>16.14977229374204</v>
       </c>
       <c r="C13">
-        <v>12.64021639074014</v>
+        <v>12.45991368946651</v>
       </c>
       <c r="D13">
-        <v>2.522490748361305</v>
+        <v>3.304245511219157</v>
       </c>
       <c r="E13">
-        <v>7.723722423014014</v>
+        <v>6.395007343542559</v>
       </c>
       <c r="F13">
-        <v>52.06502157131374</v>
+        <v>39.79410065302214</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.746643669950331</v>
       </c>
       <c r="I13">
-        <v>33.78451624410746</v>
+        <v>3.380423372357963</v>
       </c>
       <c r="J13">
-        <v>6.742608269091415</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.36868213627154</v>
+        <v>25.35602291348814</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.525598167434722</v>
       </c>
       <c r="M13">
-        <v>12.73791085549325</v>
+        <v>15.17714529729878</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -907,40 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.653568014603</v>
+        <v>16.06211698674215</v>
       </c>
       <c r="C14">
-        <v>12.53019069099255</v>
+        <v>11.99307087851828</v>
       </c>
       <c r="D14">
-        <v>2.510645320786696</v>
+        <v>3.155045517489009</v>
       </c>
       <c r="E14">
-        <v>7.693520306522897</v>
+        <v>5.50820675010424</v>
       </c>
       <c r="F14">
-        <v>51.76437346590863</v>
+        <v>37.16709577424464</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.754762503667716</v>
       </c>
       <c r="I14">
-        <v>33.62398733969603</v>
+        <v>3.459800090335186</v>
       </c>
       <c r="J14">
-        <v>6.733065049013444</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>14.23085809137893</v>
+        <v>23.84260771783814</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.125515576309922</v>
       </c>
       <c r="M14">
-        <v>12.66124722665933</v>
+        <v>14.96337763351948</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -948,40 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.56593700391247</v>
+        <v>15.98623856492327</v>
       </c>
       <c r="C15">
-        <v>12.46260931879106</v>
+        <v>11.84431719390881</v>
       </c>
       <c r="D15">
-        <v>2.503344094215924</v>
+        <v>3.120774425407936</v>
       </c>
       <c r="E15">
-        <v>7.67508851836619</v>
+        <v>5.294012663598923</v>
       </c>
       <c r="F15">
-        <v>51.58020245218445</v>
+        <v>36.43460474602381</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.993174511021977</v>
       </c>
       <c r="I15">
-        <v>33.52575611277243</v>
+        <v>3.498209079268247</v>
       </c>
       <c r="J15">
-        <v>6.727281484229731</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>14.14602166444252</v>
+        <v>23.43077635221197</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.035848891310724</v>
       </c>
       <c r="M15">
-        <v>12.61431116195062</v>
+        <v>14.86305787211595</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -989,40 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05697749583378</v>
+        <v>15.46849175346344</v>
       </c>
       <c r="C16">
-        <v>12.07243172622532</v>
+        <v>11.46764400231409</v>
       </c>
       <c r="D16">
-        <v>2.460807646533612</v>
+        <v>3.090819944365568</v>
       </c>
       <c r="E16">
-        <v>7.570503887480706</v>
+        <v>5.205872422176848</v>
       </c>
       <c r="F16">
-        <v>50.52457295472493</v>
+        <v>35.94457623352352</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.834013002287073</v>
       </c>
       <c r="I16">
-        <v>32.96430953863685</v>
+        <v>3.65187422962914</v>
       </c>
       <c r="J16">
-        <v>6.695070934785309</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.65340136601651</v>
+        <v>23.26196667940252</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.996703074688382</v>
       </c>
       <c r="M16">
-        <v>12.3457077083641</v>
+        <v>14.39044563780499</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1030,40 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.73860105862105</v>
+        <v>15.11003505872952</v>
       </c>
       <c r="C17">
-        <v>11.83046868505681</v>
+        <v>11.43858940768054</v>
       </c>
       <c r="D17">
-        <v>2.434094266925826</v>
+        <v>3.149367600321952</v>
       </c>
       <c r="E17">
-        <v>7.50727420022535</v>
+        <v>5.612118680186303</v>
       </c>
       <c r="F17">
-        <v>49.87681615161294</v>
+        <v>36.99454543048783</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.155137348114284</v>
       </c>
       <c r="I17">
-        <v>32.6211887880055</v>
+        <v>3.728956656028914</v>
       </c>
       <c r="J17">
-        <v>6.676125616395318</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.34533520068795</v>
+        <v>23.93983879028641</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.1645319989675</v>
       </c>
       <c r="M17">
-        <v>12.18128485624859</v>
+        <v>14.13915057567772</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1071,40 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.55318422366646</v>
+        <v>14.86031426347132</v>
       </c>
       <c r="C18">
-        <v>11.69033796913618</v>
+        <v>11.70359094556208</v>
       </c>
       <c r="D18">
-        <v>2.418503083778179</v>
+        <v>3.281848399450846</v>
       </c>
       <c r="E18">
-        <v>7.471248630413192</v>
+        <v>6.569540054952751</v>
       </c>
       <c r="F18">
-        <v>49.50420413924708</v>
+        <v>39.59384567581547</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.987848745589128</v>
       </c>
       <c r="I18">
-        <v>32.4243149342923</v>
+        <v>3.735783400306122</v>
       </c>
       <c r="J18">
-        <v>6.665521478239572</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.16595274154354</v>
+        <v>25.5168457964101</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.620150524053667</v>
       </c>
       <c r="M18">
-        <v>12.08685736637945</v>
+        <v>14.05463962025092</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1112,40 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.490007735657</v>
+        <v>14.71414256933108</v>
       </c>
       <c r="C19">
-        <v>11.64272716614181</v>
+        <v>12.19849876063685</v>
       </c>
       <c r="D19">
-        <v>2.413185397290509</v>
+        <v>3.498041984703856</v>
       </c>
       <c r="E19">
-        <v>7.459109925641735</v>
+        <v>7.970553694559242</v>
       </c>
       <c r="F19">
-        <v>49.37803987107034</v>
+        <v>43.08719095339269</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.635331206567713</v>
       </c>
       <c r="I19">
-        <v>32.35773947998228</v>
+        <v>3.698414198452971</v>
       </c>
       <c r="J19">
-        <v>6.661980750450201</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.1048371683996</v>
+        <v>27.60532232836163</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.363406744499126</v>
       </c>
       <c r="M19">
-        <v>12.05491202475775</v>
+        <v>14.11978422914133</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1153,40 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77272950956274</v>
+        <v>14.88719356593976</v>
       </c>
       <c r="C20">
-        <v>11.85632538148539</v>
+        <v>13.23088972141635</v>
       </c>
       <c r="D20">
-        <v>2.436961401366648</v>
+        <v>3.878555656197502</v>
       </c>
       <c r="E20">
-        <v>7.513969688781611</v>
+        <v>10.34700134957516</v>
       </c>
       <c r="F20">
-        <v>49.9457756136703</v>
+        <v>49.11392191167188</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.233221858116702</v>
       </c>
       <c r="I20">
-        <v>32.65766491520971</v>
+        <v>3.506217065853127</v>
       </c>
       <c r="J20">
-        <v>6.678111934936816</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.37835529638081</v>
+        <v>31.20144686323462</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.75859529007806</v>
       </c>
       <c r="M20">
-        <v>12.19877335355594</v>
+        <v>14.58646938037611</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1194,40 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.69547087870312</v>
+        <v>15.79968242734344</v>
       </c>
       <c r="C21">
-        <v>12.56254690675161</v>
+        <v>14.13866121214427</v>
       </c>
       <c r="D21">
-        <v>2.514134110040458</v>
+        <v>4.047270642002558</v>
       </c>
       <c r="E21">
-        <v>7.702377252730447</v>
+        <v>11.11220269502256</v>
       </c>
       <c r="F21">
-        <v>51.85268431963649</v>
+        <v>51.68041068359322</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.821660828874852</v>
       </c>
       <c r="I21">
-        <v>33.67111823278039</v>
+        <v>3.197642113784251</v>
       </c>
       <c r="J21">
-        <v>6.735855176960473</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>14.27142665913713</v>
+        <v>32.57706874215263</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.206964166790151</v>
       </c>
       <c r="M21">
-        <v>12.68376052321226</v>
+        <v>15.50287701101246</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1235,40 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.27889618248235</v>
+        <v>16.38110630329563</v>
       </c>
       <c r="C22">
-        <v>13.03081917565519</v>
+        <v>14.6555833666094</v>
       </c>
       <c r="D22">
-        <v>2.562534402398176</v>
+        <v>4.121398041292617</v>
       </c>
       <c r="E22">
-        <v>7.828552460818355</v>
+        <v>11.48291654746995</v>
       </c>
       <c r="F22">
-        <v>53.0983157646227</v>
+        <v>53.16716281484867</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.573701314329415</v>
       </c>
       <c r="I22">
-        <v>34.33782010723219</v>
+        <v>2.992271543337923</v>
       </c>
       <c r="J22">
-        <v>6.776347339379388</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.83641340770581</v>
+        <v>33.38652402631237</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.431341022237975</v>
       </c>
       <c r="M22">
-        <v>13.05075789542687</v>
+        <v>16.06619692684433</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1276,40 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.96926734655385</v>
+        <v>16.07821792286263</v>
       </c>
       <c r="C23">
-        <v>12.77459990347255</v>
+        <v>14.35967117857899</v>
       </c>
       <c r="D23">
-        <v>2.536889590877501</v>
+        <v>4.064098792796524</v>
       </c>
       <c r="E23">
-        <v>7.760931954533712</v>
+        <v>11.27634574888394</v>
       </c>
       <c r="F23">
-        <v>52.4335603499872</v>
+        <v>52.48362498711339</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.703728937787474</v>
       </c>
       <c r="I23">
-        <v>33.9815817949974</v>
+        <v>3.089467646753682</v>
       </c>
       <c r="J23">
-        <v>6.754476480353986</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.53653723473814</v>
+        <v>33.04257625972154</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.315538216697044</v>
       </c>
       <c r="M23">
-        <v>12.83195618183031</v>
+        <v>15.76428812214855</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1317,40 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.75730745234006</v>
+        <v>14.87249143387432</v>
       </c>
       <c r="C24">
-        <v>11.84463875617235</v>
+        <v>13.23834035581611</v>
       </c>
       <c r="D24">
-        <v>2.435665896346308</v>
+        <v>3.873092618997372</v>
       </c>
       <c r="E24">
-        <v>7.510941642720259</v>
+        <v>10.48314920424817</v>
       </c>
       <c r="F24">
-        <v>49.91459968395623</v>
+        <v>49.64522854340049</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.207278929248613</v>
       </c>
       <c r="I24">
-        <v>32.6411728408963</v>
+        <v>3.484682343231352</v>
       </c>
       <c r="J24">
-        <v>6.677213025546057</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.36343399398783</v>
+        <v>31.56377897077122</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.858401457123781</v>
       </c>
       <c r="M24">
-        <v>12.19086648499288</v>
+        <v>14.57983972487559</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1358,45 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.36187970101888</v>
+        <v>13.46235702971655</v>
       </c>
       <c r="C25">
-        <v>10.80498698731818</v>
+        <v>12.03850367914165</v>
       </c>
       <c r="D25">
-        <v>2.317839931460287</v>
+        <v>3.661260504895154</v>
       </c>
       <c r="E25">
-        <v>7.254411850314908</v>
+        <v>9.569889538520046</v>
       </c>
       <c r="F25">
-        <v>47.19666659542256</v>
+        <v>46.42164767720096</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.769048311606725</v>
       </c>
       <c r="I25">
-        <v>31.21384734284604</v>
+        <v>3.926951444648274</v>
       </c>
       <c r="J25">
-        <v>6.60498887988793</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.01388563104389</v>
+        <v>29.89385570083003</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.337426303862802</v>
       </c>
       <c r="M25">
-        <v>11.50514819829003</v>
+        <v>13.20125275933314</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.34270311278681</v>
+        <v>12.24549801191726</v>
       </c>
       <c r="C2">
-        <v>11.04546426593226</v>
+        <v>12.4369874016167</v>
       </c>
       <c r="D2">
-        <v>3.453587502343548</v>
+        <v>4.312700671137174</v>
       </c>
       <c r="E2">
-        <v>8.817837710037081</v>
+        <v>9.568050901029466</v>
       </c>
       <c r="F2">
-        <v>44.21685861352945</v>
+        <v>38.24320079010238</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.195417884740329</v>
+        <v>3.026202833231051</v>
       </c>
       <c r="I2">
-        <v>4.241661454694501</v>
+        <v>3.927109738179197</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>28.84095371600178</v>
+        <v>23.91432641427899</v>
       </c>
       <c r="L2">
-        <v>6.93959253252107</v>
+        <v>18.65771878512317</v>
       </c>
       <c r="M2">
-        <v>12.10542473488568</v>
+        <v>16.92105183431025</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.873873543165969</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.38324684851068</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51466810262373</v>
+        <v>11.45359068323672</v>
       </c>
       <c r="C3">
-        <v>10.37804754967511</v>
+        <v>11.67642528467513</v>
       </c>
       <c r="D3">
-        <v>3.336775006746785</v>
+        <v>4.050543714284652</v>
       </c>
       <c r="E3">
-        <v>8.292605013409272</v>
+        <v>9.000384812239275</v>
       </c>
       <c r="F3">
-        <v>42.48293383082103</v>
+        <v>37.09422044699329</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.499106201769287</v>
+        <v>3.308392682130664</v>
       </c>
       <c r="I3">
-        <v>4.478565915025758</v>
+        <v>4.132063966624392</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>27.96204458972462</v>
+        <v>23.5050560424182</v>
       </c>
       <c r="L3">
-        <v>6.650572342930394</v>
+        <v>18.48030049279342</v>
       </c>
       <c r="M3">
-        <v>11.42307264323084</v>
+        <v>16.50015934219538</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.610235092567083</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.62261344686743</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.97546670122945</v>
+        <v>10.93800339242932</v>
       </c>
       <c r="C4">
-        <v>9.955428223265038</v>
+        <v>11.19411480127789</v>
       </c>
       <c r="D4">
-        <v>3.264799101540084</v>
+        <v>3.88474396468192</v>
       </c>
       <c r="E4">
-        <v>7.955278855054651</v>
+        <v>8.635653311401605</v>
       </c>
       <c r="F4">
-        <v>41.37799965969545</v>
+        <v>36.36547972909946</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.691780545589721</v>
+        <v>3.487649156329834</v>
       </c>
       <c r="I4">
-        <v>4.629146228235275</v>
+        <v>4.262728297396392</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>27.40228944477115</v>
+        <v>23.24403139622529</v>
       </c>
       <c r="L4">
-        <v>6.466094680802698</v>
+        <v>18.35891918086098</v>
       </c>
       <c r="M4">
-        <v>10.98755641217222</v>
+        <v>16.24884746535482</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.4421567601927</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.16232679987292</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.74617089314203</v>
+        <v>10.71899546862703</v>
       </c>
       <c r="C5">
-        <v>9.787999269588548</v>
+        <v>11.0002610738712</v>
       </c>
       <c r="D5">
-        <v>3.240511629583922</v>
+        <v>3.821829450231929</v>
       </c>
       <c r="E5">
-        <v>7.817595733626873</v>
+        <v>8.485805894207196</v>
       </c>
       <c r="F5">
-        <v>40.88414131059164</v>
+        <v>36.03629546913039</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.77244248576093</v>
+        <v>3.562681414121347</v>
       </c>
       <c r="I5">
-        <v>4.694410714235038</v>
+        <v>4.320122844654853</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>27.14307347702942</v>
+        <v>23.11564586638092</v>
       </c>
       <c r="L5">
-        <v>6.388134201364558</v>
+        <v>18.29004687334281</v>
       </c>
       <c r="M5">
-        <v>10.80777966285703</v>
+        <v>16.13507317313244</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.371294465778167</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.97145170092398</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.70545167257748</v>
+        <v>10.68035363891825</v>
       </c>
       <c r="C6">
-        <v>9.769658364544462</v>
+        <v>10.97563980605288</v>
       </c>
       <c r="D6">
-        <v>3.242731026109094</v>
+        <v>3.818425815478509</v>
       </c>
       <c r="E6">
-        <v>7.798773642905998</v>
+        <v>8.464114077684085</v>
       </c>
       <c r="F6">
-        <v>40.76008588492081</v>
+        <v>35.94875419097005</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.786605052944218</v>
+        <v>3.575780927039103</v>
       </c>
       <c r="I6">
-        <v>4.708610536667821</v>
+        <v>4.333449152051983</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>27.06761911924927</v>
+        <v>23.07020727367449</v>
       </c>
       <c r="L6">
-        <v>6.373791725599422</v>
+        <v>18.25856567533014</v>
       </c>
       <c r="M6">
-        <v>10.77977994944866</v>
+        <v>16.0999278068527</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.358400776147437</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.94118238174419</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.9666034853206</v>
+        <v>10.93020317341351</v>
       </c>
       <c r="C7">
-        <v>9.978928366781997</v>
+        <v>11.21231760375338</v>
       </c>
       <c r="D7">
-        <v>3.281413001799311</v>
+        <v>3.903016303982725</v>
       </c>
       <c r="E7">
-        <v>7.96482389989078</v>
+        <v>8.642822953870274</v>
       </c>
       <c r="F7">
-        <v>41.25963503062467</v>
+        <v>36.27331633395791</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.694681573530934</v>
+        <v>3.490130752774428</v>
       </c>
       <c r="I7">
-        <v>4.638754931091537</v>
+        <v>4.273371017618411</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>27.31196383355013</v>
+        <v>23.17745033976728</v>
       </c>
       <c r="L7">
-        <v>6.461566689470595</v>
+        <v>18.30481590735526</v>
       </c>
       <c r="M7">
-        <v>10.99070632077439</v>
+        <v>16.2024001042674</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.438420234721594</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.16430204939034</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.0564263331412</v>
+        <v>11.97255024205596</v>
       </c>
       <c r="C8">
-        <v>10.84961590535778</v>
+        <v>12.20358698052136</v>
       </c>
       <c r="D8">
-        <v>3.435236698555445</v>
+        <v>4.24730250030398</v>
       </c>
       <c r="E8">
-        <v>8.653817628321699</v>
+        <v>9.387005219578386</v>
       </c>
       <c r="F8">
-        <v>43.48679534252214</v>
+        <v>37.74111300580634</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.301208138347182</v>
+        <v>3.124151298507081</v>
       </c>
       <c r="I8">
-        <v>4.333479792919702</v>
+        <v>4.009419225757919</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>28.43150982455531</v>
+        <v>23.69232884072129</v>
       </c>
       <c r="L8">
-        <v>6.837031550932656</v>
+        <v>18.53310017769646</v>
       </c>
       <c r="M8">
-        <v>11.88039298345487</v>
+        <v>16.71500052776901</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.780783506004265</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.1098606214387</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.96083270857839</v>
+        <v>13.79282797840399</v>
       </c>
       <c r="C9">
-        <v>12.40986486700916</v>
+        <v>13.98649795005607</v>
       </c>
       <c r="D9">
-        <v>3.70493099680347</v>
+        <v>4.854555745239382</v>
       </c>
       <c r="E9">
-        <v>9.868440309092625</v>
+        <v>10.7017760350615</v>
       </c>
       <c r="F9">
-        <v>47.70408310118631</v>
+        <v>40.57245037046767</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.574103157667937</v>
+        <v>2.450133466876664</v>
       </c>
       <c r="I9">
-        <v>3.759794915524407</v>
+        <v>3.512905985757123</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>30.60640793961054</v>
+        <v>24.7334965112899</v>
       </c>
       <c r="L9">
-        <v>7.522100741603817</v>
+        <v>18.9700002810341</v>
       </c>
       <c r="M9">
-        <v>13.67345206394755</v>
+        <v>17.84706401315214</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.406180042364557</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.99870163459783</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.2226508350074</v>
+        <v>15.00303606153141</v>
       </c>
       <c r="C10">
-        <v>13.45551586384615</v>
+        <v>15.1292379350684</v>
       </c>
       <c r="D10">
-        <v>3.876611257626475</v>
+        <v>5.264100161045468</v>
       </c>
       <c r="E10">
-        <v>10.48835933139674</v>
+        <v>11.37632028584239</v>
       </c>
       <c r="F10">
-        <v>50.02706246904207</v>
+        <v>42.09322398312445</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.107195251346642</v>
+        <v>2.019845415749201</v>
       </c>
       <c r="I10">
-        <v>3.376815658482422</v>
+        <v>3.184539486409288</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>31.74334075432752</v>
+        <v>25.20620435113958</v>
       </c>
       <c r="L10">
-        <v>7.860751541944372</v>
+        <v>19.05080885584769</v>
       </c>
       <c r="M10">
-        <v>14.8880427357062</v>
+        <v>18.50954493114203</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.709963751678759</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.230358396733</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84116681080027</v>
+        <v>15.6384686803749</v>
       </c>
       <c r="C11">
-        <v>13.34924943617984</v>
+        <v>14.86486821054486</v>
       </c>
       <c r="D11">
-        <v>3.710071914204591</v>
+        <v>5.06820763538562</v>
       </c>
       <c r="E11">
-        <v>9.0403674634845</v>
+        <v>9.8598527326526</v>
       </c>
       <c r="F11">
-        <v>46.57786802366932</v>
+        <v>39.28112417078442</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.005925250410572</v>
+        <v>2.943698849694207</v>
       </c>
       <c r="I11">
-        <v>3.311326284066535</v>
+        <v>3.128571688088122</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>29.47121649094232</v>
+        <v>23.51044937012889</v>
       </c>
       <c r="L11">
-        <v>6.95619744834399</v>
+        <v>17.66258412697216</v>
       </c>
       <c r="M11">
-        <v>15.26650714563115</v>
+        <v>17.35358792156564</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.834657355811556</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.58746927299759</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.11738963651754</v>
+        <v>15.93851488942994</v>
       </c>
       <c r="C12">
-        <v>13.00010942649487</v>
+        <v>14.37147940361773</v>
       </c>
       <c r="D12">
-        <v>3.514324715108252</v>
+        <v>4.787709460004168</v>
       </c>
       <c r="E12">
-        <v>7.710417761969608</v>
+        <v>8.458364598042618</v>
       </c>
       <c r="F12">
-        <v>43.31618344776263</v>
+        <v>36.69578890428809</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.336901822814794</v>
+        <v>4.289041415923394</v>
       </c>
       <c r="I12">
-        <v>3.312783500400394</v>
+        <v>3.125465277671803</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>27.44868811296823</v>
+        <v>22.0884530247539</v>
       </c>
       <c r="L12">
-        <v>6.19996400114224</v>
+        <v>16.57171654852081</v>
       </c>
       <c r="M12">
-        <v>15.33517862533095</v>
+        <v>16.30496155296498</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.11267796538272</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.63483424123518</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.14977229374204</v>
+        <v>16.00298141814021</v>
       </c>
       <c r="C13">
-        <v>12.45991368946651</v>
+        <v>13.67940082037051</v>
       </c>
       <c r="D13">
-        <v>3.304245511219157</v>
+        <v>4.443012036497826</v>
       </c>
       <c r="E13">
-        <v>6.395007343542559</v>
+        <v>7.058581486220428</v>
       </c>
       <c r="F13">
-        <v>39.79410065302214</v>
+        <v>33.97006211745158</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.746643669950331</v>
+        <v>5.70380260851425</v>
       </c>
       <c r="I13">
-        <v>3.380423372357963</v>
+        <v>3.17969703613574</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>25.35602291348814</v>
+        <v>20.69248021509399</v>
       </c>
       <c r="L13">
-        <v>5.525598167434722</v>
+        <v>15.55921825308369</v>
       </c>
       <c r="M13">
-        <v>15.17714529729878</v>
+        <v>15.20520865624254</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.480735266954576</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.45263298607614</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.06211698674215</v>
+        <v>15.94196292999133</v>
       </c>
       <c r="C14">
-        <v>11.99307087851828</v>
+        <v>13.09961902949588</v>
       </c>
       <c r="D14">
-        <v>3.155045517489009</v>
+        <v>4.172915964572031</v>
       </c>
       <c r="E14">
-        <v>5.50820675010424</v>
+        <v>6.102403006314604</v>
       </c>
       <c r="F14">
-        <v>37.16709577424464</v>
+        <v>31.96912999020111</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.754762503667716</v>
+        <v>6.712963175776743</v>
       </c>
       <c r="I14">
-        <v>3.459800090335186</v>
+        <v>3.24642603147333</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>23.84260771783814</v>
+        <v>19.71949707951914</v>
       </c>
       <c r="L14">
-        <v>5.125515576309922</v>
+        <v>14.87540510152491</v>
       </c>
       <c r="M14">
-        <v>14.96337763351948</v>
+        <v>14.40919979650482</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.114282904130345</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.21993431426522</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.98623856492327</v>
+        <v>15.87468186052825</v>
       </c>
       <c r="C15">
-        <v>11.84431719390881</v>
+        <v>12.92084678019866</v>
       </c>
       <c r="D15">
-        <v>3.120774425407936</v>
+        <v>4.099456585225142</v>
       </c>
       <c r="E15">
-        <v>5.294012663598923</v>
+        <v>5.86863872993297</v>
       </c>
       <c r="F15">
-        <v>36.43460474602381</v>
+        <v>31.42393620212224</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.993174511021977</v>
+        <v>6.95074315313857</v>
       </c>
       <c r="I15">
-        <v>3.498209079268247</v>
+        <v>3.280429269579324</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>23.43077635221197</v>
+        <v>19.4670318751328</v>
       </c>
       <c r="L15">
-        <v>5.035848891310724</v>
+        <v>14.70513666383907</v>
       </c>
       <c r="M15">
-        <v>14.86305787211595</v>
+        <v>14.19214626388753</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.034066880768204</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.11411491614546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.46849175346344</v>
+        <v>15.3735774272025</v>
       </c>
       <c r="C16">
-        <v>11.46764400231409</v>
+        <v>12.54187460311718</v>
       </c>
       <c r="D16">
-        <v>3.090819944365568</v>
+        <v>3.985778662400616</v>
       </c>
       <c r="E16">
-        <v>5.205872422176848</v>
+        <v>5.774740870936883</v>
       </c>
       <c r="F16">
-        <v>35.94457623352352</v>
+        <v>31.17217616470742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.834013002287073</v>
+        <v>6.782529350048472</v>
       </c>
       <c r="I16">
-        <v>3.65187422962914</v>
+        <v>3.414740731867724</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>23.26196667940252</v>
+        <v>19.4813147651801</v>
       </c>
       <c r="L16">
-        <v>4.996703074688382</v>
+        <v>14.78498188578803</v>
       </c>
       <c r="M16">
-        <v>14.39044563780499</v>
+        <v>14.10588691816466</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.004215146236046</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.6365883214777</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11003505872952</v>
+        <v>15.01347790874423</v>
       </c>
       <c r="C17">
-        <v>11.43858940768054</v>
+        <v>12.57323562630474</v>
       </c>
       <c r="D17">
-        <v>3.149367600321952</v>
+        <v>4.048972351453583</v>
       </c>
       <c r="E17">
-        <v>5.612118680186303</v>
+        <v>6.214274682132916</v>
       </c>
       <c r="F17">
-        <v>36.99454543048783</v>
+        <v>32.06147108768954</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.155137348114284</v>
+        <v>6.094175150079151</v>
       </c>
       <c r="I17">
-        <v>3.728956656028914</v>
+        <v>3.483593626309375</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>23.93983879028641</v>
+        <v>20.00738382430396</v>
       </c>
       <c r="L17">
-        <v>5.1645319989675</v>
+        <v>15.21828351403238</v>
       </c>
       <c r="M17">
-        <v>14.13915057567772</v>
+        <v>14.45600425279296</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.161106331675867</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.39218307759359</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86031426347132</v>
+        <v>14.74531708740885</v>
       </c>
       <c r="C18">
-        <v>11.70359094556208</v>
+        <v>12.94864962739352</v>
       </c>
       <c r="D18">
-        <v>3.281848399450846</v>
+        <v>4.257323522762324</v>
       </c>
       <c r="E18">
-        <v>6.569540054952751</v>
+        <v>7.235878491007615</v>
       </c>
       <c r="F18">
-        <v>39.59384567581547</v>
+        <v>34.11601582095587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.987848745589128</v>
+        <v>4.91445223096941</v>
       </c>
       <c r="I18">
-        <v>3.735783400306122</v>
+        <v>3.489926104286556</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>25.5168457964101</v>
+        <v>21.10612097432747</v>
       </c>
       <c r="L18">
-        <v>5.620150524053667</v>
+        <v>16.07013226044157</v>
       </c>
       <c r="M18">
-        <v>14.05463962025092</v>
+        <v>15.26369101140496</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.586564725984283</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.32606232720102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.71414256933108</v>
+        <v>14.57007039349878</v>
       </c>
       <c r="C19">
-        <v>12.19849876063685</v>
+        <v>13.59428022040699</v>
       </c>
       <c r="D19">
-        <v>3.498041984703856</v>
+        <v>4.596222871119063</v>
       </c>
       <c r="E19">
-        <v>7.970553694559242</v>
+        <v>8.713975687541959</v>
       </c>
       <c r="F19">
-        <v>43.08719095339269</v>
+        <v>36.83560967669133</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.635331206567713</v>
+        <v>3.545080801140002</v>
       </c>
       <c r="I19">
-        <v>3.698414198452971</v>
+        <v>3.462639106684445</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>27.60532232836163</v>
+        <v>22.5225109621215</v>
       </c>
       <c r="L19">
-        <v>6.363406744499126</v>
+        <v>17.15127799195095</v>
       </c>
       <c r="M19">
-        <v>14.11978422914133</v>
+        <v>16.32788197389332</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.289351226377391</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.41565353074384</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.88719356593976</v>
+        <v>14.68345672775227</v>
       </c>
       <c r="C20">
-        <v>13.23088972141635</v>
+        <v>14.88052885441194</v>
       </c>
       <c r="D20">
-        <v>3.878555656197502</v>
+        <v>5.211077808913904</v>
       </c>
       <c r="E20">
-        <v>10.34700134957516</v>
+        <v>11.21546901682203</v>
       </c>
       <c r="F20">
-        <v>49.11392191167188</v>
+        <v>41.45081859270577</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.233221858116702</v>
+        <v>2.134952852206648</v>
       </c>
       <c r="I20">
-        <v>3.506217065853127</v>
+        <v>3.304050756658438</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>31.20144686323462</v>
+        <v>24.89651353724422</v>
       </c>
       <c r="L20">
-        <v>7.75859529007806</v>
+        <v>18.89046056856239</v>
       </c>
       <c r="M20">
-        <v>14.58646938037611</v>
+        <v>18.1922229942416</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.618919659055157</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.92282789649558</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.79968242734344</v>
+        <v>15.55027850752099</v>
       </c>
       <c r="C21">
-        <v>14.13866121214427</v>
+        <v>15.86000922714256</v>
       </c>
       <c r="D21">
-        <v>4.047270642002558</v>
+        <v>5.57340147204605</v>
       </c>
       <c r="E21">
-        <v>11.11220269502256</v>
+        <v>12.03694837805531</v>
       </c>
       <c r="F21">
-        <v>51.68041068359322</v>
+        <v>43.24349232066032</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.821660828874852</v>
+        <v>1.754328184409406</v>
       </c>
       <c r="I21">
-        <v>3.197642113784251</v>
+        <v>3.040019878858482</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>32.57706874215263</v>
+        <v>25.61673245498919</v>
       </c>
       <c r="L21">
-        <v>8.206964166790151</v>
+        <v>19.21897958855851</v>
       </c>
       <c r="M21">
-        <v>15.50287701101246</v>
+        <v>18.98328498026857</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.033580961470538</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.85599758511905</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.38110630329563</v>
+        <v>16.10389647846417</v>
       </c>
       <c r="C22">
-        <v>14.6555833666094</v>
+        <v>16.42168288856169</v>
       </c>
       <c r="D22">
-        <v>4.121398041292617</v>
+        <v>5.759313148491715</v>
       </c>
       <c r="E22">
-        <v>11.48291654746995</v>
+        <v>12.43955140401793</v>
       </c>
       <c r="F22">
-        <v>53.16716281484867</v>
+        <v>44.27743452738065</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.573701314329415</v>
+        <v>1.594035154799156</v>
       </c>
       <c r="I22">
-        <v>2.992271543337923</v>
+        <v>2.860752835424401</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>33.38652402631237</v>
+        <v>26.03928285245371</v>
       </c>
       <c r="L22">
-        <v>8.431341022237975</v>
+        <v>19.39286903143679</v>
       </c>
       <c r="M22">
-        <v>16.06619692684433</v>
+        <v>19.47134997432064</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.23831099568185</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.42812614436773</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.07821792286263</v>
+        <v>15.81489792520948</v>
       </c>
       <c r="C23">
-        <v>14.35967117857899</v>
+        <v>16.10365066130171</v>
       </c>
       <c r="D23">
-        <v>4.064098792796524</v>
+        <v>5.641131456427314</v>
       </c>
       <c r="E23">
-        <v>11.27634574888394</v>
+        <v>12.21796905460208</v>
       </c>
       <c r="F23">
-        <v>52.48362498711339</v>
+        <v>43.81211335588047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.703728937787474</v>
+        <v>1.646134989327518</v>
       </c>
       <c r="I23">
-        <v>3.089467646753682</v>
+        <v>2.942154421962484</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>33.04257625972154</v>
+        <v>25.88018870021305</v>
       </c>
       <c r="L23">
-        <v>8.315538216697044</v>
+        <v>19.34958039585622</v>
       </c>
       <c r="M23">
-        <v>15.76428812214855</v>
+        <v>19.26128570636888</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.132229372625327</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.12218117040561</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.87249143387432</v>
+        <v>14.66455955324251</v>
       </c>
       <c r="C24">
-        <v>13.23834035581611</v>
+        <v>14.90906596540545</v>
       </c>
       <c r="D24">
-        <v>3.873092618997372</v>
+        <v>5.211005767277761</v>
       </c>
       <c r="E24">
-        <v>10.48314920424817</v>
+        <v>11.36177462760383</v>
       </c>
       <c r="F24">
-        <v>49.64522854340049</v>
+        <v>41.87020172150863</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.207278929248613</v>
+        <v>2.110580465578416</v>
       </c>
       <c r="I24">
-        <v>3.484682343231352</v>
+        <v>3.280659325750586</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>31.56377897077122</v>
+        <v>25.15821339698138</v>
       </c>
       <c r="L24">
-        <v>7.858401457123781</v>
+        <v>19.09159843776149</v>
       </c>
       <c r="M24">
-        <v>14.57983972487559</v>
+        <v>18.3866446857876</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.714229300898293</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.91942900007629</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.46235702971655</v>
+        <v>13.31757797860673</v>
       </c>
       <c r="C25">
-        <v>12.03850367914165</v>
+        <v>13.55014489131342</v>
       </c>
       <c r="D25">
-        <v>3.661260504895154</v>
+        <v>4.722213831617485</v>
       </c>
       <c r="E25">
-        <v>9.569889538520046</v>
+        <v>10.37418422653911</v>
       </c>
       <c r="F25">
-        <v>46.42164767720096</v>
+        <v>39.68641881038302</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.769048311606725</v>
+        <v>2.630164805159738</v>
       </c>
       <c r="I25">
-        <v>3.926951444648274</v>
+        <v>3.661620078339423</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>29.89385570083003</v>
+        <v>24.3525708348599</v>
       </c>
       <c r="L25">
-        <v>7.337426303862802</v>
+        <v>18.7789802515997</v>
       </c>
       <c r="M25">
-        <v>13.20125275933314</v>
+        <v>17.45690891580669</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.238128700867814</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.51685514519063</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
